--- a/config_3.9/game_module_config_cjj.xlsx
+++ b/config_3.9/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1030">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4416,6 +4416,18 @@
   </si>
   <si>
     <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_jbzk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Act_JBZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4624,7 +4636,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4791,6 +4803,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5070,13 +5085,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ338"/>
+  <dimension ref="A1:AJ339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B342" sqref="B342"/>
+      <selection pane="bottomRight" activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13787,6 +13802,32 @@
         <v>1026</v>
       </c>
     </row>
+    <row r="339" spans="1:9" ht="16.5">
+      <c r="A339" s="16">
+        <v>338</v>
+      </c>
+      <c r="B339" s="56" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C339" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E339" s="17">
+        <v>1</v>
+      </c>
+      <c r="F339" s="17">
+        <v>1</v>
+      </c>
+      <c r="G339" s="17">
+        <v>1</v>
+      </c>
+      <c r="I339" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_3.9/game_module_config_cjj.xlsx
+++ b/config_3.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1033">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4429,6 +4429,15 @@
   <si>
     <t>Sys_Act_JBZKManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_xrxsfl</t>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+  </si>
+  <si>
+    <t>Act_XRXSFLManager</t>
   </si>
 </sst>
 </file>
@@ -5085,13 +5094,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ339"/>
+  <dimension ref="A1:AJ340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A340" sqref="A340"/>
+      <selection pane="bottomRight" activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13828,6 +13837,32 @@
         <v>640</v>
       </c>
     </row>
+    <row r="340" spans="1:9">
+      <c r="A340" s="17">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+      <c r="I340" t="s">
+        <v>867</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_3.9/game_module_config_cjj.xlsx
+++ b/config_3.9/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1032">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3462,10 +3462,6 @@
   </si>
   <si>
     <t>小游戏福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4645,7 +4641,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4806,9 +4802,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -5097,10 +5090,10 @@
   <dimension ref="A1:AJ340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A341" sqref="A341"/>
+      <selection pane="bottomRight" activeCell="H282" sqref="H282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5124,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7090,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -8208,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="49" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -10925,7 +10918,7 @@
         <v>629</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>630</v>
@@ -11505,13 +11498,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>736</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11587,7 +11580,7 @@
         <v>747</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>748</v>
@@ -11603,7 +11596,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12053,7 +12046,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C274" s="15" t="s">
         <v>810</v>
@@ -12101,7 +12094,7 @@
       </c>
     </row>
     <row r="276" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A276" s="55">
+      <c r="A276" s="54">
         <v>275</v>
       </c>
       <c r="B276" s="52" t="s">
@@ -12119,8 +12112,8 @@
       <c r="G276" s="53">
         <v>1</v>
       </c>
-      <c r="I276" s="54" t="s">
-        <v>819</v>
+      <c r="I276" s="52" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12128,25 +12121,25 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="D277" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="C277" s="15" t="s">
-        <v>889</v>
-      </c>
-      <c r="D277" s="18" t="s">
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>821</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>0</v>
-      </c>
-      <c r="G277" s="17">
-        <v>0</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12154,13 +12147,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12172,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12180,22 +12173,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>824</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12203,13 +12196,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12221,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12229,13 +12222,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12247,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12255,25 +12248,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="D282" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>835</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12281,25 +12274,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="C283" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="D283" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>839</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12307,13 +12300,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="C284" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="D284" s="28" t="s">
         <v>849</v>
-      </c>
-      <c r="D284" s="28" t="s">
-        <v>850</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -12333,25 +12326,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>843</v>
+      </c>
+      <c r="D285" s="28" t="s">
         <v>845</v>
       </c>
-      <c r="C285" s="29" t="s">
-        <v>844</v>
-      </c>
-      <c r="D285" s="28" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>846</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12359,13 +12352,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="C286" s="29" t="s">
         <v>851</v>
       </c>
-      <c r="C286" s="29" t="s">
+      <c r="D286" s="28" t="s">
         <v>852</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>853</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12385,13 +12378,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>854</v>
-      </c>
-      <c r="C287" s="27" t="s">
-        <v>856</v>
-      </c>
-      <c r="D287" s="26" t="s">
-        <v>855</v>
       </c>
       <c r="E287" s="27">
         <v>0</v>
@@ -12411,13 +12404,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="C288" s="15" t="s">
         <v>857</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="D288" s="15" t="s">
         <v>858</v>
-      </c>
-      <c r="D288" s="15" t="s">
-        <v>859</v>
       </c>
       <c r="E288" s="17">
         <v>1</v>
@@ -12437,25 +12430,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
         <v>862</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="I289" s="19" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12463,25 +12456,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="C290" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="C290" s="30" t="s">
+      <c r="D290" s="30" t="s">
         <v>865</v>
       </c>
-      <c r="D290" s="30" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>866</v>
-      </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="30">
-        <v>1</v>
-      </c>
-      <c r="G290" s="30">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12489,14 +12482,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="C291" s="30" t="s">
         <v>868</v>
       </c>
-      <c r="C291" s="30" t="s">
+      <c r="D291" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="D291" s="30" t="s">
-        <v>870</v>
-      </c>
       <c r="E291" s="30">
         <v>1</v>
       </c>
@@ -12507,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12515,13 +12508,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="C292" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="D292" s="20" t="s">
         <v>873</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>874</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12541,13 +12534,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="D293" s="20" t="s">
         <v>876</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>877</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12567,13 +12560,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="D294" s="18" t="s">
         <v>878</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>871</v>
-      </c>
-      <c r="D294" s="18" t="s">
-        <v>879</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12594,13 +12587,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="C295" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="D295" s="18" t="s">
         <v>883</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>884</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12613,7 +12606,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12648,13 +12641,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="D296" s="18" t="s">
         <v>887</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>888</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12667,7 +12660,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12702,13 +12695,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="D297" s="18" t="s">
         <v>891</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>892</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12721,7 +12714,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12756,13 +12749,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="35" t="s">
+        <v>892</v>
+      </c>
+      <c r="C298" s="36" t="s">
+        <v>895</v>
+      </c>
+      <c r="D298" s="35" t="s">
         <v>893</v>
-      </c>
-      <c r="C298" s="36" t="s">
-        <v>896</v>
-      </c>
-      <c r="D298" s="35" t="s">
-        <v>894</v>
       </c>
       <c r="E298" s="30">
         <v>1</v>
@@ -12775,7 +12768,7 @@
       </c>
       <c r="H298" s="30"/>
       <c r="I298" s="37" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12810,13 +12803,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C299" s="39" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E299" s="40">
         <v>1</v>
@@ -12829,7 +12822,7 @@
       </c>
       <c r="H299" s="40"/>
       <c r="I299" s="39" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12864,13 +12857,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C300" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E300" s="40">
         <v>1</v>
@@ -12883,7 +12876,7 @@
       </c>
       <c r="H300" s="40"/>
       <c r="I300" s="39" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12891,13 +12884,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
+        <v>944</v>
+      </c>
+      <c r="C301" s="38" t="s">
+        <v>896</v>
+      </c>
+      <c r="D301" s="38" t="s">
         <v>945</v>
-      </c>
-      <c r="C301" s="38" t="s">
-        <v>897</v>
-      </c>
-      <c r="D301" s="38" t="s">
-        <v>946</v>
       </c>
       <c r="E301" s="40">
         <v>1</v>
@@ -12918,13 +12911,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="C302" s="17" t="s">
         <v>898</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="D302" s="17" t="s">
         <v>899</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>900</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12937,7 +12930,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12945,13 +12938,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12964,7 +12957,7 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
@@ -12972,13 +12965,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="35" t="s">
+        <v>907</v>
+      </c>
+      <c r="C304" s="36" t="s">
         <v>908</v>
       </c>
-      <c r="C304" s="36" t="s">
+      <c r="D304" s="35" t="s">
         <v>909</v>
-      </c>
-      <c r="D304" s="35" t="s">
-        <v>910</v>
       </c>
       <c r="E304" s="30">
         <v>1</v>
@@ -12991,7 +12984,7 @@
       </c>
       <c r="H304" s="30"/>
       <c r="I304" s="36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12999,51 +12992,51 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="C305" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="D305" s="18" t="s">
         <v>912</v>
       </c>
-      <c r="D305" s="18" t="s">
+      <c r="E305" s="17">
+        <v>1</v>
+      </c>
+      <c r="F305" s="17">
+        <v>1</v>
+      </c>
+      <c r="G305" s="17">
+        <v>1</v>
+      </c>
+      <c r="I305" s="15" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A306" s="54">
+        <v>305</v>
+      </c>
+      <c r="B306" s="51" t="s">
         <v>913</v>
       </c>
-      <c r="E305" s="17">
-        <v>1</v>
-      </c>
-      <c r="F305" s="17">
-        <v>1</v>
-      </c>
-      <c r="G305" s="17">
-        <v>1</v>
-      </c>
-      <c r="I305" s="15" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A306" s="55">
-        <v>305</v>
-      </c>
-      <c r="B306" s="51" t="s">
+      <c r="C306" s="52" t="s">
         <v>914</v>
       </c>
-      <c r="C306" s="52" t="s">
+      <c r="D306" s="51" t="s">
         <v>915</v>
       </c>
-      <c r="D306" s="51" t="s">
+      <c r="E306" s="53">
+        <v>1</v>
+      </c>
+      <c r="F306" s="53">
+        <v>1</v>
+      </c>
+      <c r="G306" s="53">
+        <v>1</v>
+      </c>
+      <c r="I306" s="52" t="s">
         <v>916</v>
-      </c>
-      <c r="E306" s="53">
-        <v>1</v>
-      </c>
-      <c r="F306" s="53">
-        <v>1</v>
-      </c>
-      <c r="G306" s="53">
-        <v>1</v>
-      </c>
-      <c r="I306" s="52" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -13051,13 +13044,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>921</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>922</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -13074,25 +13067,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="34" t="s">
+        <v>922</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>924</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>925</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13100,13 +13093,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
+        <v>926</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="34" t="s">
         <v>928</v>
-      </c>
-      <c r="D309" s="34" t="s">
-        <v>929</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -13126,25 +13119,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>931</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>0</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>932</v>
-      </c>
-      <c r="E310" s="17">
-        <v>0</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13152,25 +13145,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="34" t="s">
+        <v>933</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="34" t="s">
         <v>935</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="E311" s="17">
+        <v>0</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>936</v>
-      </c>
-      <c r="E311" s="17">
-        <v>0</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13178,11 +13171,11 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="C312" s="15" t="s">
-        <v>939</v>
-      </c>
       <c r="E312" s="17">
         <v>0</v>
       </c>
@@ -13193,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13201,22 +13194,22 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="E313" s="17">
+        <v>0</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>941</v>
-      </c>
-      <c r="E313" s="17">
-        <v>0</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13224,10 +13217,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -13239,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="15" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13247,22 +13240,22 @@
         <v>314</v>
       </c>
       <c r="B315" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>968</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="E315" s="17">
+        <v>0</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="15" t="s">
         <v>969</v>
-      </c>
-      <c r="E315" s="17">
-        <v>0</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="15" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13270,22 +13263,22 @@
         <v>315</v>
       </c>
       <c r="B316" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="C316" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="C316" s="17" t="s">
+      <c r="E316" s="17">
+        <v>0</v>
+      </c>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
+      <c r="G316" s="17">
+        <v>1</v>
+      </c>
+      <c r="I316" s="15" t="s">
         <v>972</v>
-      </c>
-      <c r="E316" s="17">
-        <v>0</v>
-      </c>
-      <c r="F316" s="17">
-        <v>1</v>
-      </c>
-      <c r="G316" s="17">
-        <v>1</v>
-      </c>
-      <c r="I316" s="15" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13293,10 +13286,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C317" s="15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E317" s="17">
         <v>0</v>
@@ -13308,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13316,10 +13309,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E318" s="17">
         <v>0</v>
@@ -13331,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13339,11 +13332,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="C319" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="C319" s="15" t="s">
-        <v>977</v>
-      </c>
       <c r="E319" s="17">
         <v>0</v>
       </c>
@@ -13354,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13362,22 +13355,22 @@
         <v>319</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C320" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="E320" s="17">
+        <v>0</v>
+      </c>
+      <c r="F320" s="17">
+        <v>1</v>
+      </c>
+      <c r="G320" s="17">
+        <v>1</v>
+      </c>
+      <c r="I320" s="19" t="s">
         <v>978</v>
-      </c>
-      <c r="E320" s="17">
-        <v>0</v>
-      </c>
-      <c r="F320" s="17">
-        <v>1</v>
-      </c>
-      <c r="G320" s="17">
-        <v>1</v>
-      </c>
-      <c r="I320" s="19" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13385,14 +13378,14 @@
         <v>320</v>
       </c>
       <c r="B321" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="C321" s="15" t="s">
         <v>984</v>
       </c>
-      <c r="C321" s="15" t="s">
+      <c r="D321" s="18" t="s">
         <v>985</v>
       </c>
-      <c r="D321" s="18" t="s">
-        <v>986</v>
-      </c>
       <c r="E321" s="17">
         <v>0</v>
       </c>
@@ -13403,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13411,25 +13404,25 @@
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C322" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="D322" s="18" t="s">
         <v>958</v>
       </c>
-      <c r="C322" s="15" t="s">
+      <c r="E322" s="17">
+        <v>0</v>
+      </c>
+      <c r="F322" s="17">
+        <v>1</v>
+      </c>
+      <c r="G322" s="17">
+        <v>1</v>
+      </c>
+      <c r="I322" s="15" t="s">
         <v>987</v>
-      </c>
-      <c r="D322" s="18" t="s">
-        <v>959</v>
-      </c>
-      <c r="E322" s="17">
-        <v>0</v>
-      </c>
-      <c r="F322" s="17">
-        <v>1</v>
-      </c>
-      <c r="G322" s="17">
-        <v>1</v>
-      </c>
-      <c r="I322" s="15" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13437,10 +13430,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C323" s="15" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E323" s="17">
         <v>0</v>
@@ -13452,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13460,19 +13453,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="50" t="s">
+        <v>989</v>
+      </c>
+      <c r="E324" s="17">
+        <v>1</v>
+      </c>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
+      <c r="G324" s="17">
+        <v>1</v>
+      </c>
+      <c r="I324" s="19" t="s">
         <v>990</v>
-      </c>
-      <c r="E324" s="17">
-        <v>1</v>
-      </c>
-      <c r="F324" s="17">
-        <v>1</v>
-      </c>
-      <c r="G324" s="17">
-        <v>1</v>
-      </c>
-      <c r="I324" s="19" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13480,14 +13473,14 @@
         <v>324</v>
       </c>
       <c r="B325" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="C325" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="C325" s="18" t="s">
+      <c r="D325" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="D325" s="18" t="s">
-        <v>963</v>
-      </c>
       <c r="E325" s="17">
         <v>1</v>
       </c>
@@ -13498,10 +13491,10 @@
         <v>1</v>
       </c>
       <c r="H325" s="17" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I325" s="15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13509,22 +13502,22 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="C326" s="19" t="s">
         <v>993</v>
       </c>
-      <c r="C326" s="19" t="s">
+      <c r="E326" s="17">
+        <v>0</v>
+      </c>
+      <c r="F326" s="17">
+        <v>1</v>
+      </c>
+      <c r="G326" s="17">
+        <v>1</v>
+      </c>
+      <c r="I326" s="15" t="s">
         <v>994</v>
-      </c>
-      <c r="E326" s="17">
-        <v>0</v>
-      </c>
-      <c r="F326" s="17">
-        <v>1</v>
-      </c>
-      <c r="G326" s="17">
-        <v>1</v>
-      </c>
-      <c r="I326" s="15" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13532,22 +13525,22 @@
         <v>326</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C327" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="E327" s="17">
+        <v>0</v>
+      </c>
+      <c r="F327" s="17">
+        <v>1</v>
+      </c>
+      <c r="G327" s="17">
+        <v>1</v>
+      </c>
+      <c r="I327" s="15" t="s">
         <v>996</v>
-      </c>
-      <c r="E327" s="17">
-        <v>0</v>
-      </c>
-      <c r="F327" s="17">
-        <v>1</v>
-      </c>
-      <c r="G327" s="17">
-        <v>1</v>
-      </c>
-      <c r="I327" s="15" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13555,22 +13548,22 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="C328" s="19" t="s">
         <v>998</v>
       </c>
-      <c r="C328" s="19" t="s">
+      <c r="E328" s="17">
+        <v>0</v>
+      </c>
+      <c r="F328" s="17">
+        <v>1</v>
+      </c>
+      <c r="G328" s="17">
+        <v>1</v>
+      </c>
+      <c r="I328" s="15" t="s">
         <v>999</v>
-      </c>
-      <c r="E328" s="17">
-        <v>0</v>
-      </c>
-      <c r="F328" s="17">
-        <v>1</v>
-      </c>
-      <c r="G328" s="17">
-        <v>1</v>
-      </c>
-      <c r="I328" s="15" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13578,14 +13571,14 @@
         <v>328</v>
       </c>
       <c r="B329" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C329" s="19" t="s">
         <v>1001</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="D329" s="18" t="s">
         <v>1002</v>
       </c>
-      <c r="D329" s="18" t="s">
-        <v>1003</v>
-      </c>
       <c r="E329" s="17">
         <v>0</v>
       </c>
@@ -13596,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13604,25 +13597,25 @@
         <v>329</v>
       </c>
       <c r="B330" s="18" t="s">
+        <v>980</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D330" s="18" t="s">
         <v>981</v>
       </c>
-      <c r="C330" s="19" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D330" s="18" t="s">
+      <c r="E330" s="17">
+        <v>0</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
         <v>982</v>
-      </c>
-      <c r="E330" s="17">
-        <v>0</v>
-      </c>
-      <c r="F330" s="17">
-        <v>1</v>
-      </c>
-      <c r="G330" s="17">
-        <v>1</v>
-      </c>
-      <c r="I330" s="15" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13630,22 +13623,22 @@
         <v>330</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C331" s="15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E331" s="17">
+        <v>0</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>1010</v>
-      </c>
-      <c r="E331" s="17">
-        <v>0</v>
-      </c>
-      <c r="F331" s="17">
-        <v>1</v>
-      </c>
-      <c r="G331" s="17">
-        <v>1</v>
-      </c>
-      <c r="I331" s="15" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13653,10 +13646,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E332" s="17">
         <v>0</v>
@@ -13668,7 +13661,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13676,10 +13669,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E333" s="17">
         <v>0</v>
@@ -13691,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="15" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13699,11 +13692,11 @@
         <v>333</v>
       </c>
       <c r="B334" s="18" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C334" s="15" t="s">
         <v>1008</v>
       </c>
-      <c r="C334" s="15" t="s">
-        <v>1009</v>
-      </c>
       <c r="E334" s="17">
         <v>0</v>
       </c>
@@ -13714,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13722,11 +13715,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C335" s="15" t="s">
         <v>1014</v>
       </c>
-      <c r="C335" s="15" t="s">
-        <v>1015</v>
-      </c>
       <c r="E335" s="17">
         <v>0</v>
       </c>
@@ -13737,7 +13730,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="15" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13745,11 +13738,11 @@
         <v>335</v>
       </c>
       <c r="B336" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C336" s="15" t="s">
         <v>1018</v>
       </c>
-      <c r="C336" s="15" t="s">
-        <v>1019</v>
-      </c>
       <c r="E336" s="17">
         <v>0</v>
       </c>
@@ -13760,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13768,11 +13761,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C337" s="19" t="s">
         <v>1020</v>
       </c>
-      <c r="C337" s="19" t="s">
-        <v>1021</v>
-      </c>
       <c r="E337" s="17">
         <v>0</v>
       </c>
@@ -13783,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="15" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13791,10 +13784,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="51" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C338" s="52" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D338" s="53"/>
       <c r="E338" s="53">
@@ -13808,21 +13801,21 @@
       </c>
       <c r="H338" s="53"/>
       <c r="I338" s="52" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="16.5">
       <c r="A339" s="16">
         <v>338</v>
       </c>
-      <c r="B339" s="56" t="s">
+      <c r="B339" s="55" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C339" s="19" t="s">
         <v>1027</v>
       </c>
-      <c r="C339" s="19" t="s">
+      <c r="D339" t="s">
         <v>1028</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1029</v>
       </c>
       <c r="E339" s="17">
         <v>1</v>
@@ -13842,14 +13835,14 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C340" t="s">
         <v>1030</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>1031</v>
       </c>
-      <c r="D340" t="s">
-        <v>1032</v>
-      </c>
       <c r="E340">
         <v>1</v>
       </c>
@@ -13860,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="I340" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config_cjj.xlsx
+++ b/config_3.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1031">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3450,10 +3450,6 @@
   </si>
   <si>
     <t>Act_029_HLQJDManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -5093,7 +5089,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H282" sqref="H282"/>
+      <selection pane="bottomRight" activeCell="H275" sqref="H275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5117,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -7083,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -8201,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="49" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -10918,7 +10914,7 @@
         <v>629</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>630</v>
@@ -11498,13 +11494,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>736</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11580,7 +11576,7 @@
         <v>747</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D256" s="15" t="s">
         <v>748</v>
@@ -11596,7 +11592,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12046,7 +12042,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C274" s="15" t="s">
         <v>810</v>
@@ -12067,30 +12063,30 @@
         <v>812</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A275" s="16">
+    <row r="275" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A275" s="54">
         <v>274</v>
       </c>
-      <c r="B275" s="15" t="s">
+      <c r="B275" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="C275" s="15" t="s">
+      <c r="C275" s="52" t="s">
         <v>813</v>
       </c>
-      <c r="D275" s="18" t="s">
+      <c r="D275" s="51" t="s">
         <v>815</v>
       </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>1</v>
-      </c>
-      <c r="G275" s="17">
-        <v>1</v>
-      </c>
-      <c r="I275" s="19" t="s">
-        <v>816</v>
+      <c r="E275" s="53">
+        <v>1</v>
+      </c>
+      <c r="F275" s="53">
+        <v>1</v>
+      </c>
+      <c r="G275" s="53">
+        <v>1</v>
+      </c>
+      <c r="I275" s="52" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -12098,11 +12094,11 @@
         <v>275</v>
       </c>
       <c r="B276" s="52" t="s">
+        <v>816</v>
+      </c>
+      <c r="C276" s="52" t="s">
         <v>817</v>
       </c>
-      <c r="C276" s="52" t="s">
-        <v>818</v>
-      </c>
       <c r="E276" s="53">
         <v>1</v>
       </c>
@@ -12113,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="52" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12121,25 +12117,25 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="D277" s="18" t="s">
         <v>819</v>
       </c>
-      <c r="C277" s="15" t="s">
-        <v>888</v>
-      </c>
-      <c r="D277" s="18" t="s">
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>820</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>0</v>
-      </c>
-      <c r="G277" s="17">
-        <v>0</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12147,13 +12143,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12165,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12173,22 +12169,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>824</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>823</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12196,13 +12192,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12214,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12222,13 +12218,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12240,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12248,25 +12244,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="D282" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>834</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12274,25 +12270,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="C283" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="D283" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>838</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12300,13 +12296,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="C284" s="29" t="s">
         <v>847</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="D284" s="28" t="s">
         <v>848</v>
-      </c>
-      <c r="D284" s="28" t="s">
-        <v>849</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -12326,25 +12322,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>843</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="D285" s="28" t="s">
         <v>844</v>
       </c>
-      <c r="C285" s="29" t="s">
-        <v>843</v>
-      </c>
-      <c r="D285" s="28" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>845</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12352,13 +12348,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="C286" s="29" t="s">
         <v>850</v>
       </c>
-      <c r="C286" s="29" t="s">
+      <c r="D286" s="28" t="s">
         <v>851</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>852</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12378,13 +12374,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>852</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>853</v>
-      </c>
-      <c r="C287" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="D287" s="26" t="s">
-        <v>854</v>
       </c>
       <c r="E287" s="27">
         <v>0</v>
@@ -12404,13 +12400,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="C288" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="D288" s="15" t="s">
         <v>857</v>
-      </c>
-      <c r="D288" s="15" t="s">
-        <v>858</v>
       </c>
       <c r="E288" s="17">
         <v>1</v>
@@ -12430,25 +12426,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>858</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" s="18" t="s">
         <v>860</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
         <v>861</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="I289" s="19" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12456,25 +12452,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="C290" s="30" t="s">
         <v>863</v>
       </c>
-      <c r="C290" s="30" t="s">
+      <c r="D290" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="D290" s="30" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>865</v>
-      </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="30">
-        <v>1</v>
-      </c>
-      <c r="G290" s="30">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12482,14 +12478,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>866</v>
+      </c>
+      <c r="C291" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="C291" s="30" t="s">
+      <c r="D291" s="30" t="s">
         <v>868</v>
       </c>
-      <c r="D291" s="30" t="s">
-        <v>869</v>
-      </c>
       <c r="E291" s="30">
         <v>1</v>
       </c>
@@ -12500,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12508,13 +12504,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="C292" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="D292" s="20" t="s">
         <v>872</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>873</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12534,13 +12530,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="D293" s="20" t="s">
         <v>875</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>876</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12560,13 +12556,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="D294" s="18" t="s">
         <v>877</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>870</v>
-      </c>
-      <c r="D294" s="18" t="s">
-        <v>878</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12587,13 +12583,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="C295" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="D295" s="18" t="s">
         <v>882</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>883</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12606,7 +12602,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12641,13 +12637,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="D296" s="18" t="s">
         <v>886</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>887</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12660,7 +12656,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12695,13 +12691,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="D297" s="18" t="s">
         <v>890</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>891</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12714,7 +12710,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12749,13 +12745,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="35" t="s">
+        <v>891</v>
+      </c>
+      <c r="C298" s="36" t="s">
+        <v>894</v>
+      </c>
+      <c r="D298" s="35" t="s">
         <v>892</v>
-      </c>
-      <c r="C298" s="36" t="s">
-        <v>895</v>
-      </c>
-      <c r="D298" s="35" t="s">
-        <v>893</v>
       </c>
       <c r="E298" s="30">
         <v>1</v>
@@ -12768,7 +12764,7 @@
       </c>
       <c r="H298" s="30"/>
       <c r="I298" s="37" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12803,13 +12799,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C299" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E299" s="40">
         <v>1</v>
@@ -12822,7 +12818,7 @@
       </c>
       <c r="H299" s="40"/>
       <c r="I299" s="39" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12857,13 +12853,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C300" s="39" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E300" s="40">
         <v>1</v>
@@ -12876,7 +12872,7 @@
       </c>
       <c r="H300" s="40"/>
       <c r="I300" s="39" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12884,13 +12880,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
+        <v>943</v>
+      </c>
+      <c r="C301" s="38" t="s">
+        <v>895</v>
+      </c>
+      <c r="D301" s="38" t="s">
         <v>944</v>
-      </c>
-      <c r="C301" s="38" t="s">
-        <v>896</v>
-      </c>
-      <c r="D301" s="38" t="s">
-        <v>945</v>
       </c>
       <c r="E301" s="40">
         <v>1</v>
@@ -12911,13 +12907,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="C302" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="D302" s="17" t="s">
         <v>898</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>899</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12930,7 +12926,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12938,13 +12934,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12957,7 +12953,7 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
@@ -12965,13 +12961,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="35" t="s">
+        <v>906</v>
+      </c>
+      <c r="C304" s="36" t="s">
         <v>907</v>
       </c>
-      <c r="C304" s="36" t="s">
+      <c r="D304" s="35" t="s">
         <v>908</v>
-      </c>
-      <c r="D304" s="35" t="s">
-        <v>909</v>
       </c>
       <c r="E304" s="30">
         <v>1</v>
@@ -12984,7 +12980,7 @@
       </c>
       <c r="H304" s="30"/>
       <c r="I304" s="36" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12992,14 +12988,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="C305" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="D305" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="D305" s="18" t="s">
-        <v>912</v>
-      </c>
       <c r="E305" s="17">
         <v>1</v>
       </c>
@@ -13010,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -13018,25 +13014,25 @@
         <v>305</v>
       </c>
       <c r="B306" s="51" t="s">
+        <v>912</v>
+      </c>
+      <c r="C306" s="52" t="s">
         <v>913</v>
       </c>
-      <c r="C306" s="52" t="s">
+      <c r="D306" s="51" t="s">
         <v>914</v>
       </c>
-      <c r="D306" s="51" t="s">
+      <c r="E306" s="53">
+        <v>1</v>
+      </c>
+      <c r="F306" s="53">
+        <v>1</v>
+      </c>
+      <c r="G306" s="53">
+        <v>1</v>
+      </c>
+      <c r="I306" s="52" t="s">
         <v>915</v>
-      </c>
-      <c r="E306" s="53">
-        <v>1</v>
-      </c>
-      <c r="F306" s="53">
-        <v>1</v>
-      </c>
-      <c r="G306" s="53">
-        <v>1</v>
-      </c>
-      <c r="I306" s="52" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -13044,13 +13040,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>920</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>921</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -13067,25 +13063,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="34" t="s">
+        <v>921</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>923</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>924</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13093,13 +13089,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
+        <v>925</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="34" t="s">
         <v>927</v>
-      </c>
-      <c r="D309" s="34" t="s">
-        <v>928</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -13119,25 +13115,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>928</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>930</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>0</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>931</v>
-      </c>
-      <c r="E310" s="17">
-        <v>0</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13145,25 +13141,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="34" t="s">
+        <v>932</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="34" t="s">
         <v>934</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="E311" s="17">
+        <v>0</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>935</v>
-      </c>
-      <c r="E311" s="17">
-        <v>0</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13171,11 +13167,11 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>936</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="C312" s="15" t="s">
-        <v>938</v>
-      </c>
       <c r="E312" s="17">
         <v>0</v>
       </c>
@@ -13186,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13194,22 +13190,22 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="E313" s="17">
+        <v>0</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>940</v>
-      </c>
-      <c r="E313" s="17">
-        <v>0</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13217,10 +13213,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -13232,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13240,22 +13236,22 @@
         <v>314</v>
       </c>
       <c r="B315" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="E315" s="17">
+        <v>0</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="15" t="s">
         <v>968</v>
-      </c>
-      <c r="E315" s="17">
-        <v>0</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="15" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13263,22 +13259,22 @@
         <v>315</v>
       </c>
       <c r="B316" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="C316" s="17" t="s">
         <v>970</v>
       </c>
-      <c r="C316" s="17" t="s">
+      <c r="E316" s="17">
+        <v>0</v>
+      </c>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
+      <c r="G316" s="17">
+        <v>1</v>
+      </c>
+      <c r="I316" s="15" t="s">
         <v>971</v>
-      </c>
-      <c r="E316" s="17">
-        <v>0</v>
-      </c>
-      <c r="F316" s="17">
-        <v>1</v>
-      </c>
-      <c r="G316" s="17">
-        <v>1</v>
-      </c>
-      <c r="I316" s="15" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13286,10 +13282,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C317" s="15" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E317" s="17">
         <v>0</v>
@@ -13301,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13309,10 +13305,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E318" s="17">
         <v>0</v>
@@ -13324,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13332,11 +13328,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C319" s="15" t="s">
         <v>975</v>
       </c>
-      <c r="C319" s="15" t="s">
-        <v>976</v>
-      </c>
       <c r="E319" s="17">
         <v>0</v>
       </c>
@@ -13347,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13355,22 +13351,22 @@
         <v>319</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C320" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="E320" s="17">
+        <v>0</v>
+      </c>
+      <c r="F320" s="17">
+        <v>1</v>
+      </c>
+      <c r="G320" s="17">
+        <v>1</v>
+      </c>
+      <c r="I320" s="19" t="s">
         <v>977</v>
-      </c>
-      <c r="E320" s="17">
-        <v>0</v>
-      </c>
-      <c r="F320" s="17">
-        <v>1</v>
-      </c>
-      <c r="G320" s="17">
-        <v>1</v>
-      </c>
-      <c r="I320" s="19" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13378,14 +13374,14 @@
         <v>320</v>
       </c>
       <c r="B321" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="C321" s="15" t="s">
         <v>983</v>
       </c>
-      <c r="C321" s="15" t="s">
+      <c r="D321" s="18" t="s">
         <v>984</v>
       </c>
-      <c r="D321" s="18" t="s">
-        <v>985</v>
-      </c>
       <c r="E321" s="17">
         <v>0</v>
       </c>
@@ -13396,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13404,25 +13400,25 @@
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C322" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="D322" s="18" t="s">
         <v>957</v>
       </c>
-      <c r="C322" s="15" t="s">
+      <c r="E322" s="17">
+        <v>0</v>
+      </c>
+      <c r="F322" s="17">
+        <v>1</v>
+      </c>
+      <c r="G322" s="17">
+        <v>1</v>
+      </c>
+      <c r="I322" s="15" t="s">
         <v>986</v>
-      </c>
-      <c r="D322" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="E322" s="17">
-        <v>0</v>
-      </c>
-      <c r="F322" s="17">
-        <v>1</v>
-      </c>
-      <c r="G322" s="17">
-        <v>1</v>
-      </c>
-      <c r="I322" s="15" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13430,10 +13426,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C323" s="15" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E323" s="17">
         <v>0</v>
@@ -13445,7 +13441,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13453,19 +13449,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="50" t="s">
+        <v>988</v>
+      </c>
+      <c r="E324" s="17">
+        <v>1</v>
+      </c>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
+      <c r="G324" s="17">
+        <v>1</v>
+      </c>
+      <c r="I324" s="19" t="s">
         <v>989</v>
-      </c>
-      <c r="E324" s="17">
-        <v>1</v>
-      </c>
-      <c r="F324" s="17">
-        <v>1</v>
-      </c>
-      <c r="G324" s="17">
-        <v>1</v>
-      </c>
-      <c r="I324" s="19" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13473,14 +13469,14 @@
         <v>324</v>
       </c>
       <c r="B325" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="C325" s="18" t="s">
         <v>960</v>
       </c>
-      <c r="C325" s="18" t="s">
+      <c r="D325" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="D325" s="18" t="s">
-        <v>962</v>
-      </c>
       <c r="E325" s="17">
         <v>1</v>
       </c>
@@ -13491,10 +13487,10 @@
         <v>1</v>
       </c>
       <c r="H325" s="17" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I325" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13502,22 +13498,22 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C326" s="19" t="s">
         <v>992</v>
       </c>
-      <c r="C326" s="19" t="s">
+      <c r="E326" s="17">
+        <v>0</v>
+      </c>
+      <c r="F326" s="17">
+        <v>1</v>
+      </c>
+      <c r="G326" s="17">
+        <v>1</v>
+      </c>
+      <c r="I326" s="15" t="s">
         <v>993</v>
-      </c>
-      <c r="E326" s="17">
-        <v>0</v>
-      </c>
-      <c r="F326" s="17">
-        <v>1</v>
-      </c>
-      <c r="G326" s="17">
-        <v>1</v>
-      </c>
-      <c r="I326" s="15" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13525,22 +13521,22 @@
         <v>326</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C327" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="E327" s="17">
+        <v>0</v>
+      </c>
+      <c r="F327" s="17">
+        <v>1</v>
+      </c>
+      <c r="G327" s="17">
+        <v>1</v>
+      </c>
+      <c r="I327" s="15" t="s">
         <v>995</v>
-      </c>
-      <c r="E327" s="17">
-        <v>0</v>
-      </c>
-      <c r="F327" s="17">
-        <v>1</v>
-      </c>
-      <c r="G327" s="17">
-        <v>1</v>
-      </c>
-      <c r="I327" s="15" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13548,22 +13544,22 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="C328" s="19" t="s">
         <v>997</v>
       </c>
-      <c r="C328" s="19" t="s">
+      <c r="E328" s="17">
+        <v>0</v>
+      </c>
+      <c r="F328" s="17">
+        <v>1</v>
+      </c>
+      <c r="G328" s="17">
+        <v>1</v>
+      </c>
+      <c r="I328" s="15" t="s">
         <v>998</v>
-      </c>
-      <c r="E328" s="17">
-        <v>0</v>
-      </c>
-      <c r="F328" s="17">
-        <v>1</v>
-      </c>
-      <c r="G328" s="17">
-        <v>1</v>
-      </c>
-      <c r="I328" s="15" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13571,14 +13567,14 @@
         <v>328</v>
       </c>
       <c r="B329" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="C329" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="D329" s="18" t="s">
         <v>1001</v>
       </c>
-      <c r="D329" s="18" t="s">
-        <v>1002</v>
-      </c>
       <c r="E329" s="17">
         <v>0</v>
       </c>
@@ -13589,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13597,25 +13593,25 @@
         <v>329</v>
       </c>
       <c r="B330" s="18" t="s">
+        <v>979</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D330" s="18" t="s">
         <v>980</v>
       </c>
-      <c r="C330" s="19" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D330" s="18" t="s">
+      <c r="E330" s="17">
+        <v>0</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
         <v>981</v>
-      </c>
-      <c r="E330" s="17">
-        <v>0</v>
-      </c>
-      <c r="F330" s="17">
-        <v>1</v>
-      </c>
-      <c r="G330" s="17">
-        <v>1</v>
-      </c>
-      <c r="I330" s="15" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13623,22 +13619,22 @@
         <v>330</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C331" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E331" s="17">
+        <v>0</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>1009</v>
-      </c>
-      <c r="E331" s="17">
-        <v>0</v>
-      </c>
-      <c r="F331" s="17">
-        <v>1</v>
-      </c>
-      <c r="G331" s="17">
-        <v>1</v>
-      </c>
-      <c r="I331" s="15" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13646,10 +13642,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E332" s="17">
         <v>0</v>
@@ -13661,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13669,10 +13665,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E333" s="17">
         <v>0</v>
@@ -13684,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13692,11 +13688,11 @@
         <v>333</v>
       </c>
       <c r="B334" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C334" s="15" t="s">
         <v>1007</v>
       </c>
-      <c r="C334" s="15" t="s">
-        <v>1008</v>
-      </c>
       <c r="E334" s="17">
         <v>0</v>
       </c>
@@ -13707,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13715,11 +13711,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C335" s="15" t="s">
         <v>1013</v>
       </c>
-      <c r="C335" s="15" t="s">
-        <v>1014</v>
-      </c>
       <c r="E335" s="17">
         <v>0</v>
       </c>
@@ -13730,7 +13726,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13738,11 +13734,11 @@
         <v>335</v>
       </c>
       <c r="B336" s="18" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C336" s="15" t="s">
         <v>1017</v>
       </c>
-      <c r="C336" s="15" t="s">
-        <v>1018</v>
-      </c>
       <c r="E336" s="17">
         <v>0</v>
       </c>
@@ -13753,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13761,11 +13757,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C337" s="19" t="s">
         <v>1019</v>
       </c>
-      <c r="C337" s="19" t="s">
-        <v>1020</v>
-      </c>
       <c r="E337" s="17">
         <v>0</v>
       </c>
@@ -13776,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="15" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13784,10 +13780,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="51" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C338" s="52" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D338" s="53"/>
       <c r="E338" s="53">
@@ -13801,7 +13797,7 @@
       </c>
       <c r="H338" s="53"/>
       <c r="I338" s="52" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="16.5">
@@ -13809,13 +13805,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="55" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C339" s="19" t="s">
         <v>1026</v>
       </c>
-      <c r="C339" s="19" t="s">
+      <c r="D339" t="s">
         <v>1027</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1028</v>
       </c>
       <c r="E339" s="17">
         <v>1</v>
@@ -13835,14 +13831,14 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C340" t="s">
         <v>1029</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>1030</v>
       </c>
-      <c r="D340" t="s">
-        <v>1031</v>
-      </c>
       <c r="E340">
         <v>1</v>
       </c>
@@ -13853,7 +13849,7 @@
         <v>1</v>
       </c>
       <c r="I340" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config_cjj.xlsx
+++ b/config_3.9/game_module_config_cjj.xlsx
@@ -3182,14 +3182,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_025_jrth</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_025_JRTHManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>活动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3791,10 +3783,6 @@
   </si>
   <si>
     <t>1月11日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二→庆典礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4430,6 +4418,18 @@
   </si>
   <si>
     <t>Act_XRXSFLManager</t>
+  </si>
+  <si>
+    <t>act_ty_jrth</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买+自动抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_JRTHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5086,10 +5086,10 @@
   <dimension ref="A1:AJ340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C321" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H275" sqref="H275"/>
+      <selection pane="bottomRight" activeCell="H332" sqref="H332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5113,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -7079,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -8197,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="49" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -10914,7 +10914,7 @@
         <v>629</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>630</v>
@@ -11029,7 +11029,7 @@
         <v>662</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>663</v>
@@ -11494,13 +11494,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>736</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11573,13 +11573,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>747</v>
+        <v>1028</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>904</v>
+        <v>1029</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>748</v>
+        <v>1030</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11592,7 +11592,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11600,13 +11600,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E257" s="17">
         <v>0</v>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="15" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11626,14 +11626,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="C258" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>755</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11652,25 +11652,25 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="D259" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>757</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="E259" s="17">
-        <v>1</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11678,25 +11678,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="D260" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>0</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>761</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>762</v>
-      </c>
-      <c r="E260" s="17">
-        <v>0</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
@@ -11704,25 +11704,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>762</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D261" t="s">
+        <v>763</v>
+      </c>
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>764</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="D261" t="s">
-        <v>765</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="12" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11730,13 +11730,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D262" s="15" t="s">
         <v>768</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="D262" s="15" t="s">
-        <v>770</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -11756,25 +11756,25 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
         <v>772</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>773</v>
-      </c>
-      <c r="E263" s="17">
-        <v>0</v>
-      </c>
-      <c r="F263" s="17">
-        <v>0</v>
-      </c>
-      <c r="G263" s="17">
-        <v>0</v>
-      </c>
-      <c r="I263" s="15" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11782,13 +11782,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="D264" s="15" t="s">
         <v>775</v>
-      </c>
-      <c r="C264" s="15" t="s">
-        <v>776</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>777</v>
       </c>
       <c r="E264" s="17">
         <v>0</v>
@@ -11808,25 +11808,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="D265" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>779</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="E265" s="17">
-        <v>0</v>
-      </c>
-      <c r="F265" s="17">
-        <v>0</v>
-      </c>
-      <c r="G265" s="17">
-        <v>0</v>
-      </c>
-      <c r="I265" s="17" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11834,25 +11834,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C266" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="C266" s="15" t="s">
-        <v>784</v>
-      </c>
       <c r="D266" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>783</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="19" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11860,13 +11860,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>788</v>
-      </c>
       <c r="D267" s="18" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E267" s="17">
         <v>0</v>
@@ -11886,13 +11886,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="46" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C268" s="46" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D268" s="45" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E268" s="2">
         <v>1</v>
@@ -11912,13 +11912,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11938,13 +11938,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="D270" s="18" t="s">
         <v>795</v>
-      </c>
-      <c r="C270" s="15" t="s">
-        <v>796</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>797</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11964,25 +11964,25 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="C271" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="C271" s="15" t="s">
-        <v>801</v>
-      </c>
       <c r="D271" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
         <v>800</v>
-      </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="I271" s="19" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11990,14 +11990,14 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="D272" s="18" t="s">
         <v>803</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="D272" s="18" t="s">
-        <v>805</v>
-      </c>
       <c r="E272" s="17">
         <v>1</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12016,13 +12016,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="C273" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="C273" s="15" t="s">
-        <v>809</v>
-      </c>
       <c r="D273" s="18" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E273" s="17">
         <v>1</v>
@@ -12042,25 +12042,25 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C274" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="E274" s="17">
+        <v>0</v>
+      </c>
+      <c r="F274" s="17">
+        <v>0</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+      <c r="I274" s="19" t="s">
         <v>810</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>811</v>
-      </c>
-      <c r="E274" s="17">
-        <v>0</v>
-      </c>
-      <c r="F274" s="17">
-        <v>0</v>
-      </c>
-      <c r="G274" s="17">
-        <v>0</v>
-      </c>
-      <c r="I274" s="19" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -12068,14 +12068,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="52" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C275" s="52" t="s">
+        <v>811</v>
+      </c>
+      <c r="D275" s="51" t="s">
         <v>813</v>
       </c>
-      <c r="D275" s="51" t="s">
-        <v>815</v>
-      </c>
       <c r="E275" s="53">
         <v>1</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="52" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -12094,10 +12094,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="52" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C276" s="52" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E276" s="53">
         <v>1</v>
@@ -12109,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="52" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12117,25 +12117,25 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="D277" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>818</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>887</v>
-      </c>
-      <c r="D277" s="18" t="s">
-        <v>819</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>0</v>
-      </c>
-      <c r="G277" s="17">
-        <v>0</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12143,13 +12143,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12169,22 +12169,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C279" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>822</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12192,13 +12192,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12210,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12218,13 +12218,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="C281" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="C281" s="15" t="s">
-        <v>831</v>
-      </c>
       <c r="D281" s="18" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12236,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12244,13 +12244,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12262,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12270,25 +12270,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="D283" s="18" t="s">
         <v>835</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>836</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>837</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12296,13 +12296,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
+        <v>844</v>
+      </c>
+      <c r="C284" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="D284" s="28" t="s">
         <v>846</v>
-      </c>
-      <c r="C284" s="29" t="s">
-        <v>847</v>
-      </c>
-      <c r="D284" s="28" t="s">
-        <v>848</v>
       </c>
       <c r="E284" s="29">
         <v>1</v>
@@ -12322,25 +12322,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>841</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>843</v>
-      </c>
-      <c r="C285" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="D285" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12348,13 +12348,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="C286" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="D286" s="28" t="s">
         <v>849</v>
-      </c>
-      <c r="C286" s="29" t="s">
-        <v>850</v>
-      </c>
-      <c r="D286" s="28" t="s">
-        <v>851</v>
       </c>
       <c r="E286" s="29">
         <v>1</v>
@@ -12374,13 +12374,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>850</v>
+      </c>
+      <c r="C287" s="27" t="s">
         <v>852</v>
       </c>
-      <c r="C287" s="27" t="s">
-        <v>854</v>
-      </c>
       <c r="D287" s="26" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E287" s="27">
         <v>0</v>
@@ -12400,13 +12400,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="D288" s="15" t="s">
         <v>855</v>
-      </c>
-      <c r="C288" s="15" t="s">
-        <v>856</v>
-      </c>
-      <c r="D288" s="15" t="s">
-        <v>857</v>
       </c>
       <c r="E288" s="17">
         <v>1</v>
@@ -12426,25 +12426,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="D289" s="18" t="s">
         <v>858</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
         <v>859</v>
-      </c>
-      <c r="D289" s="18" t="s">
-        <v>860</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="I289" s="19" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12452,25 +12452,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C290" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="D290" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="C290" s="30" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>863</v>
-      </c>
-      <c r="D290" s="30" t="s">
-        <v>864</v>
-      </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="30">
-        <v>1</v>
-      </c>
-      <c r="G290" s="30">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12478,14 +12478,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="C291" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="D291" s="30" t="s">
         <v>866</v>
       </c>
-      <c r="C291" s="30" t="s">
-        <v>867</v>
-      </c>
-      <c r="D291" s="30" t="s">
-        <v>868</v>
-      </c>
       <c r="E291" s="30">
         <v>1</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12504,13 +12504,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="C292" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="D292" s="20" t="s">
         <v>870</v>
-      </c>
-      <c r="C292" s="15" t="s">
-        <v>871</v>
-      </c>
-      <c r="D292" s="20" t="s">
-        <v>872</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12530,13 +12530,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="D293" s="20" t="s">
         <v>873</v>
-      </c>
-      <c r="C293" s="15" t="s">
-        <v>874</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>875</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12556,13 +12556,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D294" s="18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12583,13 +12583,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="D295" s="18" t="s">
         <v>880</v>
-      </c>
-      <c r="C295" s="15" t="s">
-        <v>881</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>882</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12602,7 +12602,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12637,13 +12637,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="D296" s="18" t="s">
         <v>884</v>
-      </c>
-      <c r="C296" s="15" t="s">
-        <v>885</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>886</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12691,13 +12691,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="D297" s="18" t="s">
         <v>888</v>
-      </c>
-      <c r="C297" s="15" t="s">
-        <v>889</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>890</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12710,7 +12710,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12745,13 +12745,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="35" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C298" s="36" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D298" s="35" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E298" s="30">
         <v>1</v>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="H298" s="30"/>
       <c r="I298" s="37" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12799,13 +12799,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C299" s="39" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E299" s="40">
         <v>1</v>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="H299" s="40"/>
       <c r="I299" s="39" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12853,13 +12853,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C300" s="39" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E300" s="40">
         <v>1</v>
@@ -12872,7 +12872,7 @@
       </c>
       <c r="H300" s="40"/>
       <c r="I300" s="39" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12880,13 +12880,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C301" s="38" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D301" s="38" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E301" s="40">
         <v>1</v>
@@ -12907,13 +12907,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="C302" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>896</v>
-      </c>
-      <c r="C302" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>898</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12926,7 +12926,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12934,13 +12934,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
@@ -12961,13 +12961,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="35" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C304" s="36" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D304" s="35" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E304" s="30">
         <v>1</v>
@@ -12980,7 +12980,7 @@
       </c>
       <c r="H304" s="30"/>
       <c r="I304" s="36" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12988,13 +12988,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E305" s="17">
         <v>1</v>
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -13014,25 +13014,25 @@
         <v>305</v>
       </c>
       <c r="B306" s="51" t="s">
+        <v>909</v>
+      </c>
+      <c r="C306" s="52" t="s">
+        <v>910</v>
+      </c>
+      <c r="D306" s="51" t="s">
+        <v>911</v>
+      </c>
+      <c r="E306" s="53">
+        <v>1</v>
+      </c>
+      <c r="F306" s="53">
+        <v>1</v>
+      </c>
+      <c r="G306" s="53">
+        <v>1</v>
+      </c>
+      <c r="I306" s="52" t="s">
         <v>912</v>
-      </c>
-      <c r="C306" s="52" t="s">
-        <v>913</v>
-      </c>
-      <c r="D306" s="51" t="s">
-        <v>914</v>
-      </c>
-      <c r="E306" s="53">
-        <v>1</v>
-      </c>
-      <c r="F306" s="53">
-        <v>1</v>
-      </c>
-      <c r="G306" s="53">
-        <v>1</v>
-      </c>
-      <c r="I306" s="52" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -13040,13 +13040,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -13063,25 +13063,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="34" t="s">
+        <v>918</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>921</v>
-      </c>
-      <c r="C308" s="15" t="s">
-        <v>922</v>
-      </c>
-      <c r="D308" s="18" t="s">
-        <v>923</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13089,13 +13089,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D309" s="34" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -13115,25 +13115,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="C310" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="D310" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="E310" s="17">
+        <v>0</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>928</v>
-      </c>
-      <c r="C310" s="15" t="s">
-        <v>929</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>930</v>
-      </c>
-      <c r="E310" s="17">
-        <v>0</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13141,25 +13141,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="34" t="s">
+        <v>929</v>
+      </c>
+      <c r="C311" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="D311" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="E311" s="17">
+        <v>0</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>932</v>
-      </c>
-      <c r="C311" s="15" t="s">
-        <v>933</v>
-      </c>
-      <c r="D311" s="34" t="s">
-        <v>934</v>
-      </c>
-      <c r="E311" s="17">
-        <v>0</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13167,10 +13167,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E312" s="17">
         <v>0</v>
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="15" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13190,10 +13190,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E313" s="17">
         <v>0</v>
@@ -13205,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13213,10 +13213,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -13228,7 +13228,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="15" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13236,10 +13236,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="18" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E315" s="17">
         <v>0</v>
@@ -13251,7 +13251,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="15" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13259,10 +13259,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E316" s="17">
         <v>0</v>
@@ -13274,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="I316" s="15" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13282,10 +13282,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C317" s="15" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E317" s="17">
         <v>0</v>
@@ -13297,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="15" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13305,10 +13305,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E318" s="17">
         <v>0</v>
@@ -13320,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13328,10 +13328,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C319" s="15" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E319" s="17">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="15" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13351,13 +13351,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E320" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F320" s="17">
         <v>1</v>
@@ -13366,7 +13366,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="19" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13374,13 +13374,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="18" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C321" s="15" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D321" s="18" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E321" s="17">
         <v>0</v>
@@ -13392,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13400,13 +13400,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D322" s="18" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E322" s="17">
         <v>0</v>
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13426,10 +13426,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C323" s="15" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E323" s="17">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="15" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13449,7 +13449,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="50" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E324" s="17">
         <v>1</v>
@@ -13461,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="I324" s="19" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13469,13 +13469,13 @@
         <v>324</v>
       </c>
       <c r="B325" s="18" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C325" s="18" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D325" s="18" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E325" s="17">
         <v>1</v>
@@ -13487,10 +13487,10 @@
         <v>1</v>
       </c>
       <c r="H325" s="17" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I325" s="15" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13498,10 +13498,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E326" s="17">
         <v>0</v>
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="I326" s="15" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13521,10 +13521,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E327" s="17">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="I327" s="15" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13544,10 +13544,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E328" s="17">
         <v>0</v>
@@ -13559,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="15" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13567,13 +13567,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E329" s="17">
         <v>0</v>
@@ -13585,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13593,13 +13593,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="18" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D330" s="18" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E330" s="17">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="15" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13619,10 +13619,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C331" s="15" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E331" s="17">
         <v>0</v>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="15" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13642,10 +13642,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E332" s="17">
         <v>0</v>
@@ -13657,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13665,10 +13665,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E333" s="17">
         <v>0</v>
@@ -13680,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="15" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13688,10 +13688,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E334" s="17">
         <v>0</v>
@@ -13703,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13711,22 +13711,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C335" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E335" s="17">
+        <v>0</v>
+      </c>
+      <c r="F335" s="17">
+        <v>1</v>
+      </c>
+      <c r="G335" s="17">
+        <v>1</v>
+      </c>
+      <c r="I335" s="15" t="s">
         <v>1012</v>
-      </c>
-      <c r="C335" s="15" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E335" s="17">
-        <v>0</v>
-      </c>
-      <c r="F335" s="17">
-        <v>1</v>
-      </c>
-      <c r="G335" s="17">
-        <v>1</v>
-      </c>
-      <c r="I335" s="15" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13734,10 +13734,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="18" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C336" s="15" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E336" s="17">
         <v>0</v>
@@ -13749,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13757,10 +13757,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="18" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C337" s="19" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E337" s="17">
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="15" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13780,10 +13780,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="51" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C338" s="52" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D338" s="53"/>
       <c r="E338" s="53">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="H338" s="53"/>
       <c r="I338" s="52" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="16.5">
@@ -13805,13 +13805,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="55" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D339" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E339" s="17">
         <v>1</v>
@@ -13831,13 +13831,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C340" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D340" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -13849,7 +13849,7 @@
         <v>1</v>
       </c>
       <c r="I340" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config_cjj.xlsx
+++ b/config_3.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1034">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4429,6 +4429,18 @@
   </si>
   <si>
     <t>Act_Ty_JRTHManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_007_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5083,13 +5095,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ340"/>
+  <dimension ref="A1:AJ341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C321" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H332" sqref="H332"/>
+      <selection pane="bottomRight" activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13826,8 +13838,8 @@
         <v>640</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
-      <c r="A340" s="17">
+    <row r="340" spans="1:9" ht="16.5">
+      <c r="A340" s="16">
         <v>339</v>
       </c>
       <c r="B340" t="s">
@@ -13850,6 +13862,29 @@
       </c>
       <c r="I340" t="s">
         <v>863</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A341" s="16">
+        <v>340</v>
+      </c>
+      <c r="B341" s="51" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C341" s="52" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E341" s="53">
+        <v>1</v>
+      </c>
+      <c r="F341" s="53">
+        <v>1</v>
+      </c>
+      <c r="G341" s="53">
+        <v>1</v>
+      </c>
+      <c r="I341" s="52" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config_cjj.xlsx
+++ b/config_3.9/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>key|key值和活动是对应的</t>
-  </si>
-  <si>
-    <t>desc|按钮描述，描述了有牵连的都不能剥离</t>
   </si>
   <si>
     <t>lua|脚本名称，问程序，现有lua功能看说明</t>
@@ -4404,6 +4401,10 @@
   </si>
   <si>
     <t>actp_own_task_p_041_xyxfl</t>
+  </si>
+  <si>
+    <t>desc|按钮描述，描述了有牵连的都不能剥离</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5060,10 +5061,10 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I276" sqref="I276"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5087,25 +5088,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -5113,14 +5114,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -5139,14 +5140,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -5165,14 +5166,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -5191,14 +5192,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -5217,14 +5218,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -5243,14 +5244,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
@@ -5261,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -5269,14 +5270,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5295,14 +5296,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5321,14 +5322,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5347,14 +5348,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5373,14 +5374,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5399,14 +5400,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5425,14 +5426,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5451,14 +5452,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5477,14 +5478,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5503,14 +5504,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5529,14 +5530,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5555,14 +5556,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5581,14 +5582,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="E20" s="5">
         <v>1</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5607,14 +5608,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5633,14 +5634,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
@@ -5651,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5659,14 +5660,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5685,14 +5686,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5711,14 +5712,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5737,14 +5738,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="E26" s="5">
         <v>0</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5763,14 +5764,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="E27" s="5">
         <v>1</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5789,14 +5790,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E28" s="5">
         <v>1</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5815,14 +5816,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="E29" s="5">
         <v>1</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5841,14 +5842,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E30" s="5">
         <v>1</v>
       </c>
@@ -5859,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5867,14 +5868,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="E31" s="5">
         <v>0</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5893,14 +5894,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="E32" s="5">
         <v>1</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5919,14 +5920,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="E33" s="5">
         <v>1</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5945,14 +5946,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="E34" s="5">
         <v>1</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5971,14 +5972,14 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="E35" s="5">
         <v>1</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5997,14 +5998,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="E36" s="5">
         <v>0</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -6023,14 +6024,14 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="E37" s="5">
         <v>1</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -6049,14 +6050,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="E38" s="5">
         <v>1</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -6075,14 +6076,14 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="E39" s="5">
         <v>1</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -6101,14 +6102,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="E40" s="5">
         <v>1</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -6127,14 +6128,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="E41" s="5">
         <v>0</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -6153,14 +6154,14 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E42" s="5">
         <v>0</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -6179,14 +6180,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="E43" s="5">
         <v>0</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -6205,14 +6206,14 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="E44" s="5">
         <v>1</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -6231,14 +6232,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="E45" s="5">
         <v>1</v>
       </c>
@@ -6249,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -6257,14 +6258,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="E46" s="5">
         <v>0</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -6283,14 +6284,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="E47" s="5">
         <v>1</v>
       </c>
@@ -6301,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6309,14 +6310,14 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="E48" s="5">
         <v>1</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6335,14 +6336,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="E49" s="5">
         <v>1</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6361,14 +6362,14 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="E50" s="5">
         <v>1</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6387,14 +6388,14 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="E51" s="5">
         <v>1</v>
       </c>
@@ -6405,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6413,10 +6414,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5">
@@ -6429,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6437,14 +6438,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="E53" s="5">
         <v>1</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6463,14 +6464,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="E54" s="5">
         <v>0</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6489,14 +6490,14 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="E55" s="5">
         <v>1</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6515,14 +6516,14 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="E56" s="5">
         <v>0</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6541,14 +6542,14 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="E57" s="5">
         <v>1</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6567,14 +6568,14 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="E58" s="5">
         <v>0</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6593,14 +6594,14 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="E59" s="5">
         <v>1</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
@@ -6619,14 +6620,14 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="E60" s="5">
         <v>0</v>
       </c>
@@ -6637,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6645,14 +6646,14 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="E61" s="5">
         <v>1</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6671,14 +6672,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="E62" s="5">
         <v>1</v>
       </c>
@@ -6689,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6697,14 +6698,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="E63" s="5">
         <v>0</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6723,14 +6724,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="E64" s="5">
         <v>1</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6749,14 +6750,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="E65" s="5">
         <v>0</v>
       </c>
@@ -6767,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6775,14 +6776,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="E66" s="5">
         <v>1</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6801,14 +6802,14 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="E67" s="5">
         <v>0</v>
       </c>
@@ -6819,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6827,14 +6828,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="E68" s="5">
         <v>0</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6853,14 +6854,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="E69" s="5">
         <v>1</v>
       </c>
@@ -6871,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6879,14 +6880,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="E70" s="5">
         <v>1</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6905,14 +6906,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="E71" s="5">
         <v>1</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6931,14 +6932,14 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="E72" s="5">
         <v>1</v>
       </c>
@@ -6949,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6957,14 +6958,14 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="E73" s="5">
         <v>1</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="32" customFormat="1" ht="16.5">
@@ -6983,14 +6984,14 @@
         <v>73</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C74" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="31" t="s">
-        <v>219</v>
-      </c>
       <c r="E74" s="31">
         <v>0</v>
       </c>
@@ -7001,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5">
@@ -7009,14 +7010,14 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -7035,16 +7036,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="D76" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="43" t="s">
-        <v>225</v>
-      </c>
       <c r="E76" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="23">
         <v>1</v>
@@ -7053,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -7061,14 +7062,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -7087,14 +7088,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E78" s="5">
         <v>1</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -7113,14 +7114,14 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="E79" s="5">
         <v>0</v>
       </c>
@@ -7131,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
@@ -7139,14 +7140,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="E80" s="5">
         <v>0</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -7165,14 +7166,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="E81" s="5">
         <v>0</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -7191,14 +7192,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="E82" s="5">
         <v>0</v>
       </c>
@@ -7209,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -7217,14 +7218,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="E83" s="5">
         <v>0</v>
       </c>
@@ -7235,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -7243,14 +7244,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -7269,14 +7270,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="E85" s="5">
         <v>1</v>
       </c>
@@ -7287,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7295,14 +7296,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="E86" s="5">
         <v>1</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7321,14 +7322,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7347,14 +7348,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="E88" s="5">
         <v>1</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7373,14 +7374,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="E89" s="5">
         <v>0</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7399,14 +7400,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="E90" s="5">
         <v>1</v>
       </c>
@@ -7417,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7425,14 +7426,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="E91" s="5">
         <v>0</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7451,14 +7452,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="E92" s="5">
         <v>1</v>
       </c>
@@ -7469,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7477,14 +7478,14 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7503,14 +7504,14 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7529,14 +7530,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7555,14 +7556,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="E96" s="5">
         <v>0</v>
       </c>
@@ -7573,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7581,14 +7582,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="E97" s="5">
         <v>0</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7607,14 +7608,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="E98" s="5">
         <v>0</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7633,14 +7634,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="E99" s="5">
         <v>0</v>
       </c>
@@ -7651,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7659,14 +7660,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="E100" s="5">
         <v>1</v>
       </c>
@@ -7677,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7685,14 +7686,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="E101" s="5">
         <v>0</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7711,14 +7712,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="E102" s="5">
         <v>0</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7737,14 +7738,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>306</v>
-      </c>
       <c r="E103" s="5">
         <v>1</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7763,14 +7764,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="E104" s="5">
         <v>0</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
@@ -7789,14 +7790,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="E105" s="5">
         <v>0</v>
       </c>
@@ -7807,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7815,14 +7816,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="E106" s="5">
         <v>0</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7841,14 +7842,14 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7867,14 +7868,14 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="E108" s="5">
         <v>0</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
@@ -7893,14 +7894,14 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
@@ -7911,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7919,14 +7920,14 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7945,14 +7946,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7971,14 +7972,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
@@ -7989,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7997,14 +7998,14 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="E113" s="5">
         <v>0</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -8023,14 +8024,14 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="E114" s="5">
         <v>0</v>
       </c>
@@ -8041,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -8049,14 +8050,14 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="E115" s="5">
         <v>0</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -8075,14 +8076,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="E116" s="5">
         <v>0</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
@@ -8101,14 +8102,14 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
@@ -8119,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -8127,14 +8128,14 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -8153,14 +8154,14 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="D119" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="E119" s="7">
         <v>1</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="49" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -8179,14 +8180,14 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
@@ -8197,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -8205,14 +8206,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="E121" s="5">
         <v>0</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -8231,14 +8232,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="E122" s="5">
         <v>0</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -8257,14 +8258,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="E123" s="5">
         <v>0</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -8283,14 +8284,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8309,14 +8310,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
@@ -8327,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8335,14 +8336,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="E126" s="5">
         <v>0</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8361,14 +8362,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
@@ -8379,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
@@ -8387,14 +8388,14 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
@@ -8405,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8413,14 +8414,14 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="E129" s="5">
         <v>0</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8439,14 +8440,14 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="E130" s="5">
         <v>0</v>
       </c>
@@ -8457,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8465,14 +8466,14 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="E131" s="5">
         <v>0</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8491,14 +8492,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
@@ -8509,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8517,14 +8518,14 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
@@ -8543,14 +8544,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
@@ -8561,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8569,14 +8570,14 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
@@ -8587,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8595,14 +8596,14 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8621,14 +8622,14 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="E137" s="5">
         <v>0</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8647,14 +8648,14 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="E138" s="5">
         <v>0</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8673,14 +8674,14 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="E139" s="5">
         <v>0</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8699,14 +8700,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="E140" s="5">
         <v>0</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8725,14 +8726,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="E141" s="5">
         <v>0</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8751,14 +8752,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="E142" s="5">
         <v>1</v>
       </c>
@@ -8769,7 +8770,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8777,14 +8778,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="E143" s="5">
         <v>0</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8803,14 +8804,14 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="E144" s="5">
         <v>1</v>
       </c>
@@ -8821,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8829,14 +8830,14 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C145" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="E145" s="5">
         <v>0</v>
       </c>
@@ -8847,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8855,14 +8856,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="E146" s="5">
         <v>0</v>
       </c>
@@ -8873,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8881,14 +8882,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="E147" s="5">
         <v>0</v>
       </c>
@@ -8899,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8907,14 +8908,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>438</v>
-      </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
@@ -8925,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8933,14 +8934,14 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="E149" s="5">
         <v>0</v>
       </c>
@@ -8951,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8959,14 +8960,14 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="E150" s="5">
         <v>0</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8985,14 +8986,14 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="E151" s="5">
         <v>0</v>
       </c>
@@ -9003,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -9011,14 +9012,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>450</v>
-      </c>
       <c r="E152" s="5">
         <v>0</v>
       </c>
@@ -9029,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -9037,14 +9038,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E153" s="5">
         <v>0</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -9063,14 +9064,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="E154" s="5">
         <v>0</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -9089,14 +9090,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
@@ -9107,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -9115,14 +9116,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -9141,14 +9142,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -9167,14 +9168,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>466</v>
-      </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
@@ -9185,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -9193,14 +9194,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -9219,14 +9220,14 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>472</v>
-      </c>
       <c r="E160" s="5">
         <v>0</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -9245,14 +9246,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="E161" s="5">
         <v>0</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -9271,14 +9272,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>478</v>
-      </c>
       <c r="E162" s="5">
         <v>1</v>
       </c>
@@ -9289,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9297,14 +9298,14 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="E163" s="5">
         <v>0</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9323,13 +9324,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="D164" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -9341,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9349,14 +9350,14 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>486</v>
-      </c>
       <c r="E165" s="5">
         <v>0</v>
       </c>
@@ -9367,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9375,14 +9376,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="E166" s="5">
         <v>1</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9401,14 +9402,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="E167" s="5">
         <v>0</v>
       </c>
@@ -9419,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9427,14 +9428,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="E168" s="5">
         <v>0</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9453,10 +9454,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5">
@@ -9469,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9477,10 +9478,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9493,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9501,10 +9502,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9517,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9525,10 +9526,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>656</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>657</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9541,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9549,14 +9550,14 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="D173" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="E173" s="5">
         <v>0</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
@@ -9575,10 +9576,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5">
@@ -9591,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9599,10 +9600,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9615,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9623,10 +9624,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9639,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9647,14 +9648,14 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>512</v>
-      </c>
       <c r="E177" s="5">
         <v>1</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9673,14 +9674,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>515</v>
-      </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9699,10 +9700,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -9715,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9723,10 +9724,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7">
@@ -9739,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9747,10 +9748,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9763,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9771,10 +9772,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9787,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="16.5">
@@ -9795,11 +9796,11 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>523</v>
+      </c>
+      <c r="C183" t="s">
         <v>524</v>
       </c>
-      <c r="C183" t="s">
-        <v>525</v>
-      </c>
       <c r="E183">
         <v>0</v>
       </c>
@@ -9810,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9818,11 +9819,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>525</v>
+      </c>
+      <c r="C184" t="s">
         <v>526</v>
       </c>
-      <c r="C184" t="s">
-        <v>527</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9833,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9841,11 +9842,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>527</v>
+      </c>
+      <c r="C185" t="s">
         <v>528</v>
       </c>
-      <c r="C185" t="s">
-        <v>529</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9856,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9864,11 +9865,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>529</v>
+      </c>
+      <c r="C186" t="s">
         <v>530</v>
       </c>
-      <c r="C186" t="s">
-        <v>531</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9879,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9887,11 +9888,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>531</v>
+      </c>
+      <c r="C187" t="s">
         <v>532</v>
       </c>
-      <c r="C187" t="s">
-        <v>533</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9910,11 +9911,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>533</v>
+      </c>
+      <c r="C188" t="s">
         <v>534</v>
       </c>
-      <c r="C188" t="s">
-        <v>535</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9933,11 +9934,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>535</v>
+      </c>
+      <c r="C189" t="s">
         <v>536</v>
       </c>
-      <c r="C189" t="s">
-        <v>537</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9948,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9956,11 +9957,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>537</v>
+      </c>
+      <c r="C190" t="s">
         <v>538</v>
       </c>
-      <c r="C190" t="s">
-        <v>539</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9979,11 +9980,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>539</v>
+      </c>
+      <c r="C191" t="s">
         <v>540</v>
       </c>
-      <c r="C191" t="s">
-        <v>541</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -10002,11 +10003,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>541</v>
+      </c>
+      <c r="C192" t="s">
         <v>542</v>
       </c>
-      <c r="C192" t="s">
-        <v>543</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -10025,11 +10026,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>543</v>
+      </c>
+      <c r="C193" t="s">
         <v>544</v>
       </c>
-      <c r="C193" t="s">
-        <v>545</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -10040,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -10048,11 +10049,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>545</v>
+      </c>
+      <c r="C194" t="s">
         <v>546</v>
       </c>
-      <c r="C194" t="s">
-        <v>547</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -10071,11 +10072,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>547</v>
+      </c>
+      <c r="C195" t="s">
         <v>548</v>
       </c>
-      <c r="C195" t="s">
-        <v>549</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -10086,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -10094,11 +10095,11 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>549</v>
+      </c>
+      <c r="C196" t="s">
         <v>550</v>
       </c>
-      <c r="C196" t="s">
-        <v>551</v>
-      </c>
       <c r="E196">
         <v>0</v>
       </c>
@@ -10109,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
@@ -10117,11 +10118,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>551</v>
+      </c>
+      <c r="C197" t="s">
         <v>552</v>
       </c>
-      <c r="C197" t="s">
-        <v>553</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -10140,11 +10141,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>553</v>
+      </c>
+      <c r="C198" t="s">
         <v>554</v>
       </c>
-      <c r="C198" t="s">
-        <v>555</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -10163,11 +10164,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>555</v>
+      </c>
+      <c r="C199" t="s">
         <v>556</v>
       </c>
-      <c r="C199" t="s">
-        <v>557</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -10178,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -10186,11 +10187,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>557</v>
+      </c>
+      <c r="C200" t="s">
         <v>558</v>
       </c>
-      <c r="C200" t="s">
-        <v>559</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -10209,11 +10210,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>559</v>
+      </c>
+      <c r="C201" t="s">
         <v>560</v>
       </c>
-      <c r="C201" t="s">
-        <v>561</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -10232,11 +10233,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>561</v>
+      </c>
+      <c r="C202" t="s">
         <v>562</v>
       </c>
-      <c r="C202" t="s">
-        <v>563</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -10255,11 +10256,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>563</v>
+      </c>
+      <c r="C203" t="s">
         <v>564</v>
       </c>
-      <c r="C203" t="s">
-        <v>565</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -10270,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
@@ -10278,14 +10279,14 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C204" t="s">
+        <v>565</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="C204" t="s">
-        <v>566</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="E204">
         <v>1</v>
       </c>
@@ -10296,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10304,14 +10305,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C205" t="s">
+        <v>566</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="C205" t="s">
-        <v>567</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>611</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -10322,7 +10323,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10330,14 +10331,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C206" t="s">
+        <v>567</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C206" t="s">
-        <v>568</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>613</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10348,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
@@ -10356,11 +10357,11 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
+        <v>568</v>
+      </c>
+      <c r="C207" t="s">
         <v>569</v>
       </c>
-      <c r="C207" t="s">
-        <v>570</v>
-      </c>
       <c r="E207">
         <v>0</v>
       </c>
@@ -10371,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
@@ -10379,11 +10380,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>570</v>
+      </c>
+      <c r="C208" t="s">
         <v>571</v>
       </c>
-      <c r="C208" t="s">
-        <v>572</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10402,11 +10403,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>572</v>
+      </c>
+      <c r="C209" t="s">
         <v>573</v>
       </c>
-      <c r="C209" t="s">
-        <v>574</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10425,11 +10426,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>574</v>
+      </c>
+      <c r="C210" t="s">
         <v>575</v>
       </c>
-      <c r="C210" t="s">
-        <v>576</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10440,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10448,11 +10449,11 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>576</v>
+      </c>
+      <c r="C211" t="s">
         <v>577</v>
       </c>
-      <c r="C211" t="s">
-        <v>578</v>
-      </c>
       <c r="E211">
         <v>1</v>
       </c>
@@ -10463,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10471,11 +10472,11 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>578</v>
+      </c>
+      <c r="C212" t="s">
         <v>579</v>
       </c>
-      <c r="C212" t="s">
-        <v>580</v>
-      </c>
       <c r="E212">
         <v>0</v>
       </c>
@@ -10486,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10494,11 +10495,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>580</v>
+      </c>
+      <c r="C213" t="s">
         <v>581</v>
       </c>
-      <c r="C213" t="s">
-        <v>582</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10517,11 +10518,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>582</v>
+      </c>
+      <c r="C214" t="s">
         <v>583</v>
       </c>
-      <c r="C214" t="s">
-        <v>584</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10540,11 +10541,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>584</v>
+      </c>
+      <c r="C215" t="s">
         <v>585</v>
       </c>
-      <c r="C215" t="s">
-        <v>586</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10563,11 +10564,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>586</v>
+      </c>
+      <c r="C216" t="s">
         <v>587</v>
       </c>
-      <c r="C216" t="s">
-        <v>588</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10586,11 +10587,11 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>588</v>
+      </c>
+      <c r="C217" t="s">
         <v>589</v>
       </c>
-      <c r="C217" t="s">
-        <v>590</v>
-      </c>
       <c r="E217">
         <v>0</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
@@ -10609,11 +10610,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>590</v>
+      </c>
+      <c r="C218" t="s">
         <v>591</v>
       </c>
-      <c r="C218" t="s">
-        <v>592</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10632,11 +10633,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>592</v>
+      </c>
+      <c r="C219" t="s">
         <v>593</v>
       </c>
-      <c r="C219" t="s">
-        <v>594</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10655,11 +10656,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>594</v>
+      </c>
+      <c r="C220" t="s">
         <v>595</v>
       </c>
-      <c r="C220" t="s">
-        <v>596</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10678,11 +10679,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>596</v>
+      </c>
+      <c r="C221" t="s">
         <v>597</v>
       </c>
-      <c r="C221" t="s">
-        <v>598</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10693,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10701,11 +10702,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>598</v>
+      </c>
+      <c r="C222" t="s">
         <v>599</v>
       </c>
-      <c r="C222" t="s">
-        <v>600</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10716,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10724,11 +10725,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>600</v>
+      </c>
+      <c r="C223" t="s">
         <v>601</v>
       </c>
-      <c r="C223" t="s">
-        <v>602</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10739,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10747,11 +10748,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>602</v>
+      </c>
+      <c r="C224" t="s">
         <v>603</v>
       </c>
-      <c r="C224" t="s">
-        <v>604</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
@@ -10770,10 +10771,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10785,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
@@ -10793,13 +10794,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C226" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D226" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>616</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10816,13 +10817,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C227" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="D227" t="s">
         <v>619</v>
-      </c>
-      <c r="D227" t="s">
-        <v>620</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10839,13 +10840,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="D228" s="9" t="s">
         <v>622</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10862,13 +10863,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C229" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="D229" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10885,13 +10886,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="D230" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>882</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>631</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -10908,13 +10909,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C231" s="9" t="s">
-        <v>629</v>
-      </c>
       <c r="D231" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10931,13 +10932,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>638</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -10954,13 +10955,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C233" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="D233" s="9" t="s">
         <v>652</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>653</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10977,13 +10978,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -11000,14 +11001,14 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="D235" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="C235" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>664</v>
-      </c>
       <c r="E235">
         <v>0</v>
       </c>
@@ -11018,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -11026,25 +11027,25 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="I236" s="9" t="s">
         <v>665</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="I236" s="9" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -11052,25 +11053,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C237" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="D237" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
         <v>671</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -11078,25 +11079,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D238" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C238" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>674</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -11104,25 +11105,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>680</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -11130,25 +11131,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="D240" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" s="9" t="s">
         <v>684</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" s="9" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -11156,25 +11157,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>688</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -11182,25 +11183,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>696</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -11208,25 +11209,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>700</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -11234,13 +11235,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11252,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -11260,13 +11261,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11278,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11286,13 +11287,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11304,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11312,25 +11313,25 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="C247" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="D247" s="9" t="s">
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="9" t="s">
         <v>716</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="I247" s="9" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11338,25 +11339,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="D248" s="9" t="s">
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11364,25 +11365,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="D249" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="D249" s="9" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>724</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11390,25 +11391,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="D250" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11416,25 +11417,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="C251" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="D251" s="9" t="s">
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11442,14 +11443,14 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C252" t="s">
+        <v>737</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C252" t="s">
-        <v>738</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>736</v>
-      </c>
       <c r="E252">
         <v>0</v>
       </c>
@@ -11460,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11468,13 +11469,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="24" t="s">
+        <v>943</v>
+      </c>
+      <c r="C253" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="D253" s="24" t="s">
         <v>944</v>
-      </c>
-      <c r="C253" s="25" t="s">
-        <v>737</v>
-      </c>
-      <c r="D253" s="24" t="s">
-        <v>945</v>
       </c>
       <c r="E253" s="25">
         <v>1</v>
@@ -11487,7 +11488,7 @@
       </c>
       <c r="H253" s="25"/>
       <c r="I253" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11495,25 +11496,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="D254" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
         <v>742</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11521,25 +11522,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>746</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -11547,13 +11548,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="D256" s="15" t="s">
         <v>748</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>907</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>749</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -11566,7 +11567,7 @@
       </c>
       <c r="H256" s="17"/>
       <c r="I256" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11574,14 +11575,14 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="D257" s="15" t="s">
-        <v>752</v>
-      </c>
       <c r="E257" s="17">
         <v>0</v>
       </c>
@@ -11592,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11600,14 +11601,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="C258" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="D258" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>756</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11618,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11626,25 +11627,25 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="D259" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="D259" s="15" t="s">
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>759</v>
-      </c>
-      <c r="E259" s="17">
-        <v>1</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11652,25 +11653,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>0</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>763</v>
-      </c>
-      <c r="E260" s="17">
-        <v>0</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
@@ -11678,25 +11679,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>764</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D261" t="s">
         <v>765</v>
       </c>
-      <c r="C261" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>766</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="12" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11704,14 +11705,14 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C262" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="C262" s="9" t="s">
+      <c r="D262" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="D262" s="15" t="s">
-        <v>771</v>
-      </c>
       <c r="E262">
         <v>1</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11730,25 +11731,25 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C263" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="D263" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="D263" s="15" t="s">
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
         <v>774</v>
-      </c>
-      <c r="E263" s="17">
-        <v>0</v>
-      </c>
-      <c r="F263" s="17">
-        <v>0</v>
-      </c>
-      <c r="G263" s="17">
-        <v>0</v>
-      </c>
-      <c r="I263" s="15" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11756,14 +11757,14 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="D264" s="15" t="s">
-        <v>778</v>
-      </c>
       <c r="E264" s="17">
         <v>0</v>
       </c>
@@ -11774,7 +11775,7 @@
         <v>1</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11782,25 +11783,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="D265" s="15" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>781</v>
-      </c>
-      <c r="E265" s="17">
-        <v>0</v>
-      </c>
-      <c r="F265" s="17">
-        <v>0</v>
-      </c>
-      <c r="G265" s="17">
-        <v>0</v>
-      </c>
-      <c r="I265" s="17" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11808,25 +11809,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>785</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>784</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="19" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11834,14 +11835,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>789</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>788</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11852,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -11860,14 +11861,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="46" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C268" s="46" t="s">
+        <v>790</v>
+      </c>
+      <c r="D268" s="45" t="s">
         <v>791</v>
       </c>
-      <c r="D268" s="45" t="s">
-        <v>792</v>
-      </c>
       <c r="E268" s="2">
         <v>1</v>
       </c>
@@ -11878,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="47" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11886,13 +11887,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C269" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="C269" s="15" t="s">
-        <v>795</v>
-      </c>
       <c r="D269" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11904,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="270" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11912,14 +11913,14 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="D270" s="18" t="s">
-        <v>798</v>
-      </c>
       <c r="E270" s="17">
         <v>0</v>
       </c>
@@ -11930,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="I270" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="271" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11938,25 +11939,25 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>800</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="E271" s="17">
+        <v>1</v>
+      </c>
+      <c r="F271" s="17">
+        <v>1</v>
+      </c>
+      <c r="G271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="19" t="s">
         <v>802</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>801</v>
-      </c>
-      <c r="E271" s="17">
-        <v>1</v>
-      </c>
-      <c r="F271" s="17">
-        <v>1</v>
-      </c>
-      <c r="G271" s="17">
-        <v>1</v>
-      </c>
-      <c r="I271" s="19" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="272" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11964,14 +11965,14 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="D272" s="18" t="s">
         <v>805</v>
       </c>
-      <c r="D272" s="18" t="s">
-        <v>806</v>
-      </c>
       <c r="E272" s="17">
         <v>1</v>
       </c>
@@ -11982,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="I272" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11990,14 +11991,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="C273" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>809</v>
-      </c>
       <c r="E273" s="17">
         <v>1</v>
       </c>
@@ -12008,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12016,25 +12017,25 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C274" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D274" s="18" t="s">
         <v>811</v>
       </c>
-      <c r="D274" s="18" t="s">
+      <c r="E274" s="17">
+        <v>0</v>
+      </c>
+      <c r="F274" s="17">
+        <v>0</v>
+      </c>
+      <c r="G274" s="17">
+        <v>0</v>
+      </c>
+      <c r="I274" s="19" t="s">
         <v>812</v>
-      </c>
-      <c r="E274" s="17">
-        <v>0</v>
-      </c>
-      <c r="F274" s="17">
-        <v>0</v>
-      </c>
-      <c r="G274" s="17">
-        <v>0</v>
-      </c>
-      <c r="I274" s="19" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12042,25 +12043,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="C275" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="D275" s="18" t="s">
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>1</v>
+      </c>
+      <c r="G275" s="17">
+        <v>1</v>
+      </c>
+      <c r="I275" s="19" t="s">
         <v>816</v>
-      </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>1</v>
-      </c>
-      <c r="G275" s="17">
-        <v>1</v>
-      </c>
-      <c r="I275" s="19" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -12068,22 +12069,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="C276" s="52" t="s">
         <v>818</v>
       </c>
-      <c r="C276" s="52" t="s">
+      <c r="E276" s="53">
+        <v>1</v>
+      </c>
+      <c r="F276" s="53">
+        <v>1</v>
+      </c>
+      <c r="G276" s="53">
+        <v>1</v>
+      </c>
+      <c r="I276" s="54" t="s">
         <v>819</v>
-      </c>
-      <c r="E276" s="53">
-        <v>1</v>
-      </c>
-      <c r="F276" s="53">
-        <v>1</v>
-      </c>
-      <c r="G276" s="53">
-        <v>1</v>
-      </c>
-      <c r="I276" s="54" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12091,25 +12092,25 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="D277" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="C277" s="15" t="s">
-        <v>890</v>
-      </c>
-      <c r="D277" s="18" t="s">
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>0</v>
+      </c>
+      <c r="G277" s="17">
+        <v>0</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>822</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>0</v>
-      </c>
-      <c r="G277" s="17">
-        <v>0</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12117,13 +12118,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12135,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12143,22 +12144,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>826</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>825</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12166,13 +12167,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12184,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12192,13 +12193,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12210,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12218,25 +12219,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="D282" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>836</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12244,25 +12245,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="C283" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="D283" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>840</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12270,14 +12271,14 @@
         <v>283</v>
       </c>
       <c r="B284" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="C284" s="29" t="s">
         <v>849</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="D284" s="28" t="s">
         <v>850</v>
       </c>
-      <c r="D284" s="28" t="s">
-        <v>851</v>
-      </c>
       <c r="E284" s="29">
         <v>1</v>
       </c>
@@ -12288,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12296,25 +12297,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="C285" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="D285" s="28" t="s">
         <v>846</v>
       </c>
-      <c r="C285" s="29" t="s">
-        <v>845</v>
-      </c>
-      <c r="D285" s="28" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>847</v>
-      </c>
-      <c r="E285" s="29">
-        <v>1</v>
-      </c>
-      <c r="F285" s="29">
-        <v>1</v>
-      </c>
-      <c r="G285" s="29">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
@@ -12322,14 +12323,14 @@
         <v>285</v>
       </c>
       <c r="B286" s="29" t="s">
+        <v>851</v>
+      </c>
+      <c r="C286" s="29" t="s">
         <v>852</v>
       </c>
-      <c r="C286" s="29" t="s">
+      <c r="D286" s="28" t="s">
         <v>853</v>
       </c>
-      <c r="D286" s="28" t="s">
-        <v>854</v>
-      </c>
       <c r="E286" s="29">
         <v>1</v>
       </c>
@@ -12340,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="27" customFormat="1" ht="16.5">
@@ -12348,14 +12349,14 @@
         <v>286</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>856</v>
+      </c>
+      <c r="D287" s="26" t="s">
         <v>855</v>
       </c>
-      <c r="C287" s="27" t="s">
-        <v>857</v>
-      </c>
-      <c r="D287" s="26" t="s">
-        <v>856</v>
-      </c>
       <c r="E287" s="27">
         <v>0</v>
       </c>
@@ -12366,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="27" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12374,14 +12375,14 @@
         <v>287</v>
       </c>
       <c r="B288" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="C288" s="15" t="s">
         <v>858</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="D288" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="D288" s="15" t="s">
-        <v>860</v>
-      </c>
       <c r="E288" s="17">
         <v>1</v>
       </c>
@@ -12392,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="289" spans="1:36" ht="16.5">
@@ -12400,25 +12401,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="C289" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="D289" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="I289" s="19" t="s">
         <v>863</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="I289" s="19" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="290" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12426,25 +12427,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="C290" s="30" t="s">
         <v>865</v>
       </c>
-      <c r="C290" s="30" t="s">
+      <c r="D290" s="30" t="s">
         <v>866</v>
       </c>
-      <c r="D290" s="30" t="s">
+      <c r="E290" s="30">
+        <v>1</v>
+      </c>
+      <c r="F290" s="30">
+        <v>1</v>
+      </c>
+      <c r="G290" s="30">
+        <v>1</v>
+      </c>
+      <c r="I290" s="30" t="s">
         <v>867</v>
-      </c>
-      <c r="E290" s="30">
-        <v>1</v>
-      </c>
-      <c r="F290" s="30">
-        <v>1</v>
-      </c>
-      <c r="G290" s="30">
-        <v>1</v>
-      </c>
-      <c r="I290" s="30" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="30" customFormat="1" ht="16.5">
@@ -12452,14 +12453,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="C291" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="C291" s="30" t="s">
+      <c r="D291" s="30" t="s">
         <v>870</v>
       </c>
-      <c r="D291" s="30" t="s">
-        <v>871</v>
-      </c>
       <c r="E291" s="30">
         <v>1</v>
       </c>
@@ -12470,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="30" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="292" spans="1:36" ht="16.5">
@@ -12478,14 +12479,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="C292" s="15" t="s">
         <v>873</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="D292" s="20" t="s">
         <v>874</v>
       </c>
-      <c r="D292" s="20" t="s">
-        <v>875</v>
-      </c>
       <c r="E292">
         <v>0</v>
       </c>
@@ -12496,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12504,14 +12505,14 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="D293" s="20" t="s">
         <v>877</v>
       </c>
-      <c r="D293" s="20" t="s">
-        <v>878</v>
-      </c>
       <c r="E293">
         <v>0</v>
       </c>
@@ -12522,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="294" spans="1:36" ht="16.5">
@@ -12530,13 +12531,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="D294" s="18" t="s">
         <v>879</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>872</v>
-      </c>
-      <c r="D294" s="18" t="s">
-        <v>880</v>
       </c>
       <c r="E294" s="17">
         <v>0</v>
@@ -12549,7 +12550,7 @@
       </c>
       <c r="H294" s="17"/>
       <c r="I294" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="295" spans="1:36" s="22" customFormat="1" ht="16.5">
@@ -12557,13 +12558,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="C295" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="D295" s="18" t="s">
         <v>884</v>
-      </c>
-      <c r="D295" s="18" t="s">
-        <v>885</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
@@ -12611,13 +12612,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>886</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="D296" s="18" t="s">
         <v>888</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>889</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12630,7 +12631,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12665,13 +12666,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="D297" s="18" t="s">
         <v>892</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>893</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12684,7 +12685,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12719,13 +12720,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="35" t="s">
+        <v>893</v>
+      </c>
+      <c r="C298" s="36" t="s">
+        <v>896</v>
+      </c>
+      <c r="D298" s="35" t="s">
         <v>894</v>
-      </c>
-      <c r="C298" s="36" t="s">
-        <v>897</v>
-      </c>
-      <c r="D298" s="35" t="s">
-        <v>895</v>
       </c>
       <c r="E298" s="30">
         <v>1</v>
@@ -12738,7 +12739,7 @@
       </c>
       <c r="H298" s="30"/>
       <c r="I298" s="37" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12773,13 +12774,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C299" s="39" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E299" s="40">
         <v>1</v>
@@ -12792,7 +12793,7 @@
       </c>
       <c r="H299" s="40"/>
       <c r="I299" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12827,13 +12828,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C300" s="39" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E300" s="40">
         <v>1</v>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="H300" s="40"/>
       <c r="I300" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="301" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12854,13 +12855,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
+        <v>945</v>
+      </c>
+      <c r="C301" s="38" t="s">
+        <v>897</v>
+      </c>
+      <c r="D301" s="38" t="s">
         <v>946</v>
-      </c>
-      <c r="C301" s="38" t="s">
-        <v>898</v>
-      </c>
-      <c r="D301" s="38" t="s">
-        <v>947</v>
       </c>
       <c r="E301" s="40">
         <v>1</v>
@@ -12873,7 +12874,7 @@
       </c>
       <c r="H301" s="40"/>
       <c r="I301" s="41" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="302" spans="1:36" ht="16.5">
@@ -12881,13 +12882,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="C302" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="D302" s="17" t="s">
         <v>900</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>901</v>
       </c>
       <c r="E302" s="17">
         <v>1</v>
@@ -12900,7 +12901,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="303" spans="1:36" ht="16.5">
@@ -12908,13 +12909,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D303" s="18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12927,7 +12928,7 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="304" spans="1:36" ht="16.5">
@@ -12935,13 +12936,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="35" t="s">
+        <v>908</v>
+      </c>
+      <c r="C304" s="36" t="s">
         <v>909</v>
       </c>
-      <c r="C304" s="36" t="s">
+      <c r="D304" s="35" t="s">
         <v>910</v>
-      </c>
-      <c r="D304" s="35" t="s">
-        <v>911</v>
       </c>
       <c r="E304" s="30">
         <v>1</v>
@@ -12954,7 +12955,7 @@
       </c>
       <c r="H304" s="30"/>
       <c r="I304" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12962,14 +12963,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="C305" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="D305" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="D305" s="18" t="s">
-        <v>914</v>
-      </c>
       <c r="E305" s="17">
         <v>1</v>
       </c>
@@ -12980,7 +12981,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="15" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -12988,25 +12989,25 @@
         <v>305</v>
       </c>
       <c r="B306" s="51" t="s">
+        <v>914</v>
+      </c>
+      <c r="C306" s="52" t="s">
         <v>915</v>
       </c>
-      <c r="C306" s="52" t="s">
+      <c r="D306" s="51" t="s">
         <v>916</v>
       </c>
-      <c r="D306" s="51" t="s">
+      <c r="E306" s="53">
+        <v>1</v>
+      </c>
+      <c r="F306" s="53">
+        <v>1</v>
+      </c>
+      <c r="G306" s="53">
+        <v>1</v>
+      </c>
+      <c r="I306" s="52" t="s">
         <v>917</v>
-      </c>
-      <c r="E306" s="53">
-        <v>1</v>
-      </c>
-      <c r="F306" s="53">
-        <v>1</v>
-      </c>
-      <c r="G306" s="53">
-        <v>1</v>
-      </c>
-      <c r="I306" s="52" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -13014,13 +13015,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="D307" s="18" t="s">
         <v>922</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>923</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -13037,25 +13038,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="34" t="s">
+        <v>923</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="D308" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="I308" s="15" t="s">
         <v>926</v>
-      </c>
-      <c r="E308" s="17">
-        <v>1</v>
-      </c>
-      <c r="F308" s="17">
-        <v>1</v>
-      </c>
-      <c r="G308" s="17">
-        <v>1</v>
-      </c>
-      <c r="I308" s="15" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13063,14 +13064,14 @@
         <v>308</v>
       </c>
       <c r="B309" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="D309" s="34" t="s">
-        <v>930</v>
-      </c>
       <c r="E309" s="17">
         <v>1</v>
       </c>
@@ -13081,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="I309" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13089,25 +13090,25 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="D310" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="I310" s="19" t="s">
         <v>933</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="I310" s="19" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="17" customFormat="1" ht="17.25">
@@ -13115,25 +13116,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="34" t="s">
+        <v>934</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="D311" s="34" t="s">
         <v>936</v>
       </c>
-      <c r="D311" s="34" t="s">
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="I311" s="15" t="s">
         <v>937</v>
-      </c>
-      <c r="E311" s="17">
-        <v>1</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="I311" s="15" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13141,11 +13142,11 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="C312" s="15" t="s">
-        <v>940</v>
-      </c>
       <c r="E312" s="17">
         <v>1</v>
       </c>
@@ -13156,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="I312" s="15" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13164,22 +13165,22 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="15" t="s">
         <v>942</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13187,10 +13188,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E314" s="17">
         <v>1</v>
@@ -13202,7 +13203,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13210,22 +13211,22 @@
         <v>314</v>
       </c>
       <c r="B315" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>969</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="E315" s="17">
+        <v>1</v>
+      </c>
+      <c r="F315" s="17">
+        <v>1</v>
+      </c>
+      <c r="G315" s="17">
+        <v>1</v>
+      </c>
+      <c r="I315" s="15" t="s">
         <v>970</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="15" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13233,22 +13234,22 @@
         <v>315</v>
       </c>
       <c r="B316" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="C316" s="17" t="s">
         <v>972</v>
       </c>
-      <c r="C316" s="17" t="s">
+      <c r="E316" s="17">
+        <v>1</v>
+      </c>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
+      <c r="G316" s="17">
+        <v>1</v>
+      </c>
+      <c r="I316" s="15" t="s">
         <v>973</v>
-      </c>
-      <c r="E316" s="17">
-        <v>1</v>
-      </c>
-      <c r="F316" s="17">
-        <v>1</v>
-      </c>
-      <c r="G316" s="17">
-        <v>1</v>
-      </c>
-      <c r="I316" s="15" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13256,10 +13257,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C317" s="15" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E317" s="17">
         <v>1</v>
@@ -13271,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13279,10 +13280,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E318" s="17">
         <v>1</v>
@@ -13294,7 +13295,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="15" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13302,11 +13303,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="C319" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="C319" s="15" t="s">
-        <v>978</v>
-      </c>
       <c r="E319" s="17">
         <v>1</v>
       </c>
@@ -13317,7 +13318,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13325,22 +13326,22 @@
         <v>319</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C320" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="E320" s="17">
+        <v>1</v>
+      </c>
+      <c r="F320" s="17">
+        <v>1</v>
+      </c>
+      <c r="G320" s="17">
+        <v>1</v>
+      </c>
+      <c r="I320" s="19" t="s">
         <v>979</v>
-      </c>
-      <c r="E320" s="17">
-        <v>1</v>
-      </c>
-      <c r="F320" s="17">
-        <v>1</v>
-      </c>
-      <c r="G320" s="17">
-        <v>1</v>
-      </c>
-      <c r="I320" s="19" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13348,14 +13349,14 @@
         <v>320</v>
       </c>
       <c r="B321" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="C321" s="15" t="s">
         <v>985</v>
       </c>
-      <c r="C321" s="15" t="s">
+      <c r="D321" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="D321" s="18" t="s">
-        <v>987</v>
-      </c>
       <c r="E321" s="17">
         <v>1</v>
       </c>
@@ -13366,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13374,25 +13375,25 @@
         <v>321</v>
       </c>
       <c r="B322" s="18" t="s">
+        <v>958</v>
+      </c>
+      <c r="C322" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="D322" s="18" t="s">
         <v>959</v>
       </c>
-      <c r="C322" s="15" t="s">
+      <c r="E322" s="17">
+        <v>1</v>
+      </c>
+      <c r="F322" s="17">
+        <v>1</v>
+      </c>
+      <c r="G322" s="17">
+        <v>1</v>
+      </c>
+      <c r="I322" s="15" t="s">
         <v>988</v>
-      </c>
-      <c r="D322" s="18" t="s">
-        <v>960</v>
-      </c>
-      <c r="E322" s="17">
-        <v>1</v>
-      </c>
-      <c r="F322" s="17">
-        <v>1</v>
-      </c>
-      <c r="G322" s="17">
-        <v>1</v>
-      </c>
-      <c r="I322" s="15" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13400,10 +13401,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C323" s="15" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E323" s="17">
         <v>1</v>
@@ -13415,7 +13416,7 @@
         <v>1</v>
       </c>
       <c r="I323" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13423,19 +13424,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="50" t="s">
+        <v>990</v>
+      </c>
+      <c r="E324" s="17">
+        <v>1</v>
+      </c>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
+      <c r="G324" s="17">
+        <v>1</v>
+      </c>
+      <c r="I324" s="19" t="s">
         <v>991</v>
-      </c>
-      <c r="E324" s="17">
-        <v>1</v>
-      </c>
-      <c r="F324" s="17">
-        <v>1</v>
-      </c>
-      <c r="G324" s="17">
-        <v>1</v>
-      </c>
-      <c r="I324" s="19" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13443,14 +13444,14 @@
         <v>324</v>
       </c>
       <c r="B325" s="18" t="s">
+        <v>961</v>
+      </c>
+      <c r="C325" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="C325" s="18" t="s">
+      <c r="D325" s="18" t="s">
         <v>963</v>
       </c>
-      <c r="D325" s="18" t="s">
-        <v>964</v>
-      </c>
       <c r="E325" s="17">
         <v>1</v>
       </c>
@@ -13461,10 +13462,10 @@
         <v>1</v>
       </c>
       <c r="H325" s="17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I325" s="15" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13472,22 +13473,22 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="C326" s="19" t="s">
         <v>994</v>
       </c>
-      <c r="C326" s="19" t="s">
+      <c r="E326" s="17">
+        <v>1</v>
+      </c>
+      <c r="F326" s="17">
+        <v>1</v>
+      </c>
+      <c r="G326" s="17">
+        <v>1</v>
+      </c>
+      <c r="I326" s="15" t="s">
         <v>995</v>
-      </c>
-      <c r="E326" s="17">
-        <v>1</v>
-      </c>
-      <c r="F326" s="17">
-        <v>1</v>
-      </c>
-      <c r="G326" s="17">
-        <v>1</v>
-      </c>
-      <c r="I326" s="15" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13495,22 +13496,22 @@
         <v>326</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C327" s="19" t="s">
+        <v>996</v>
+      </c>
+      <c r="E327" s="17">
+        <v>1</v>
+      </c>
+      <c r="F327" s="17">
+        <v>1</v>
+      </c>
+      <c r="G327" s="17">
+        <v>1</v>
+      </c>
+      <c r="I327" s="15" t="s">
         <v>997</v>
-      </c>
-      <c r="E327" s="17">
-        <v>1</v>
-      </c>
-      <c r="F327" s="17">
-        <v>1</v>
-      </c>
-      <c r="G327" s="17">
-        <v>1</v>
-      </c>
-      <c r="I327" s="15" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13518,22 +13519,22 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="C328" s="19" t="s">
         <v>999</v>
       </c>
-      <c r="C328" s="19" t="s">
+      <c r="E328" s="17">
+        <v>1</v>
+      </c>
+      <c r="F328" s="17">
+        <v>1</v>
+      </c>
+      <c r="G328" s="17">
+        <v>1</v>
+      </c>
+      <c r="I328" s="15" t="s">
         <v>1000</v>
-      </c>
-      <c r="E328" s="17">
-        <v>1</v>
-      </c>
-      <c r="F328" s="17">
-        <v>1</v>
-      </c>
-      <c r="G328" s="17">
-        <v>1</v>
-      </c>
-      <c r="I328" s="15" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13541,14 +13542,14 @@
         <v>328</v>
       </c>
       <c r="B329" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C329" s="19" t="s">
         <v>1002</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="D329" s="18" t="s">
         <v>1003</v>
       </c>
-      <c r="D329" s="18" t="s">
-        <v>1004</v>
-      </c>
       <c r="E329" s="17">
         <v>1</v>
       </c>
@@ -13559,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13567,25 +13568,25 @@
         <v>329</v>
       </c>
       <c r="B330" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D330" s="18" t="s">
         <v>982</v>
       </c>
-      <c r="C330" s="19" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D330" s="18" t="s">
+      <c r="E330" s="17">
+        <v>1</v>
+      </c>
+      <c r="F330" s="17">
+        <v>1</v>
+      </c>
+      <c r="G330" s="17">
+        <v>1</v>
+      </c>
+      <c r="I330" s="15" t="s">
         <v>983</v>
-      </c>
-      <c r="E330" s="17">
-        <v>1</v>
-      </c>
-      <c r="F330" s="17">
-        <v>1</v>
-      </c>
-      <c r="G330" s="17">
-        <v>1</v>
-      </c>
-      <c r="I330" s="15" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13593,22 +13594,22 @@
         <v>330</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C331" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E331" s="17">
+        <v>1</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>1011</v>
-      </c>
-      <c r="E331" s="17">
-        <v>1</v>
-      </c>
-      <c r="F331" s="17">
-        <v>1</v>
-      </c>
-      <c r="G331" s="17">
-        <v>1</v>
-      </c>
-      <c r="I331" s="15" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13616,10 +13617,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E332" s="17">
         <v>1</v>
@@ -13631,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13639,10 +13640,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E333" s="17">
         <v>1</v>
@@ -13654,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="15" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13662,11 +13663,11 @@
         <v>333</v>
       </c>
       <c r="B334" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C334" s="15" t="s">
         <v>1009</v>
       </c>
-      <c r="C334" s="15" t="s">
-        <v>1010</v>
-      </c>
       <c r="E334" s="17">
         <v>1</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -13685,11 +13686,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="51" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C335" s="52" t="s">
         <v>1015</v>
       </c>
-      <c r="C335" s="52" t="s">
-        <v>1016</v>
-      </c>
       <c r="E335" s="53">
         <v>1</v>
       </c>
@@ -13700,7 +13701,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="52" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -13708,11 +13709,11 @@
         <v>335</v>
       </c>
       <c r="B336" s="51" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C336" s="52" t="s">
         <v>1019</v>
       </c>
-      <c r="C336" s="52" t="s">
-        <v>1020</v>
-      </c>
       <c r="E336" s="53">
         <v>1</v>
       </c>
@@ -13723,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="52" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -13731,11 +13732,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="51" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C337" s="54" t="s">
         <v>1021</v>
       </c>
-      <c r="C337" s="54" t="s">
-        <v>1022</v>
-      </c>
       <c r="E337" s="53">
         <v>1</v>
       </c>
@@ -13746,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="52" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -13773,7 +13774,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_3.9/game_module_config_cjj.xlsx
+++ b/config_3.9/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="1027">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4404,6 +4404,18 @@
   </si>
   <si>
     <t>desc|按钮描述，描述了有牵连的都不能剥离</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_005_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5058,13 +5070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ337"/>
+  <dimension ref="A1:AJ338"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomRight" activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13099,7 +13111,7 @@
         <v>932</v>
       </c>
       <c r="E310" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F310" s="17">
         <v>1</v>
@@ -13125,7 +13137,7 @@
         <v>936</v>
       </c>
       <c r="E311" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F311" s="17">
         <v>1</v>
@@ -13148,7 +13160,7 @@
         <v>939</v>
       </c>
       <c r="E312" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" s="17">
         <v>1</v>
@@ -13171,7 +13183,7 @@
         <v>941</v>
       </c>
       <c r="E313" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F313" s="17">
         <v>1</v>
@@ -13194,7 +13206,7 @@
         <v>967</v>
       </c>
       <c r="E314" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F314" s="17">
         <v>1</v>
@@ -13217,7 +13229,7 @@
         <v>969</v>
       </c>
       <c r="E315" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F315" s="17">
         <v>1</v>
@@ -13240,7 +13252,7 @@
         <v>972</v>
       </c>
       <c r="E316" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F316" s="17">
         <v>1</v>
@@ -13263,7 +13275,7 @@
         <v>974</v>
       </c>
       <c r="E317" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F317" s="17">
         <v>1</v>
@@ -13286,7 +13298,7 @@
         <v>950</v>
       </c>
       <c r="E318" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F318" s="17">
         <v>1</v>
@@ -13309,7 +13321,7 @@
         <v>977</v>
       </c>
       <c r="E319" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" s="17">
         <v>1</v>
@@ -13332,7 +13344,7 @@
         <v>978</v>
       </c>
       <c r="E320" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F320" s="17">
         <v>1</v>
@@ -13358,7 +13370,7 @@
         <v>986</v>
       </c>
       <c r="E321" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F321" s="17">
         <v>1</v>
@@ -13384,7 +13396,7 @@
         <v>959</v>
       </c>
       <c r="E322" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F322" s="17">
         <v>1</v>
@@ -13407,7 +13419,7 @@
         <v>989</v>
       </c>
       <c r="E323" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F323" s="17">
         <v>1</v>
@@ -13479,7 +13491,7 @@
         <v>994</v>
       </c>
       <c r="E326" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F326" s="17">
         <v>1</v>
@@ -13502,7 +13514,7 @@
         <v>996</v>
       </c>
       <c r="E327" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327" s="17">
         <v>1</v>
@@ -13525,7 +13537,7 @@
         <v>999</v>
       </c>
       <c r="E328" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F328" s="17">
         <v>1</v>
@@ -13551,7 +13563,7 @@
         <v>1003</v>
       </c>
       <c r="E329" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F329" s="17">
         <v>1</v>
@@ -13577,7 +13589,7 @@
         <v>982</v>
       </c>
       <c r="E330" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F330" s="17">
         <v>1</v>
@@ -13600,7 +13612,7 @@
         <v>1010</v>
       </c>
       <c r="E331" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F331" s="17">
         <v>1</v>
@@ -13623,7 +13635,7 @@
         <v>1012</v>
       </c>
       <c r="E332" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F332" s="17">
         <v>1</v>
@@ -13646,7 +13658,7 @@
         <v>1007</v>
       </c>
       <c r="E333" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" s="17">
         <v>1</v>
@@ -13669,7 +13681,7 @@
         <v>1009</v>
       </c>
       <c r="E334" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F334" s="17">
         <v>1</v>
@@ -13681,73 +13693,98 @@
         <v>995</v>
       </c>
     </row>
-    <row r="335" spans="1:9" s="53" customFormat="1" ht="16.5">
+    <row r="335" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A335" s="16">
         <v>334</v>
       </c>
-      <c r="B335" s="51" t="s">
+      <c r="B335" s="18" t="s">
         <v>1014</v>
       </c>
-      <c r="C335" s="52" t="s">
+      <c r="C335" s="15" t="s">
         <v>1015</v>
       </c>
-      <c r="E335" s="53">
-        <v>1</v>
-      </c>
-      <c r="F335" s="53">
-        <v>1</v>
-      </c>
-      <c r="G335" s="53">
-        <v>1</v>
-      </c>
-      <c r="I335" s="52" t="s">
+      <c r="E335" s="17">
+        <v>0</v>
+      </c>
+      <c r="F335" s="17">
+        <v>1</v>
+      </c>
+      <c r="G335" s="17">
+        <v>1</v>
+      </c>
+      <c r="I335" s="15" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="336" spans="1:9" s="53" customFormat="1" ht="16.5">
+    <row r="336" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A336" s="16">
         <v>335</v>
       </c>
-      <c r="B336" s="51" t="s">
+      <c r="B336" s="18" t="s">
         <v>1018</v>
       </c>
-      <c r="C336" s="52" t="s">
+      <c r="C336" s="15" t="s">
         <v>1019</v>
       </c>
-      <c r="E336" s="53">
-        <v>1</v>
-      </c>
-      <c r="F336" s="53">
-        <v>1</v>
-      </c>
-      <c r="G336" s="53">
-        <v>1</v>
-      </c>
-      <c r="I336" s="52" t="s">
+      <c r="E336" s="17">
+        <v>0</v>
+      </c>
+      <c r="F336" s="17">
+        <v>1</v>
+      </c>
+      <c r="G336" s="17">
+        <v>1</v>
+      </c>
+      <c r="I336" s="15" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="337" spans="1:9" s="53" customFormat="1" ht="16.5">
+    <row r="337" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A337" s="16">
         <v>336</v>
       </c>
-      <c r="B337" s="51" t="s">
+      <c r="B337" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="C337" s="54" t="s">
+      <c r="C337" s="19" t="s">
         <v>1021</v>
       </c>
-      <c r="E337" s="53">
-        <v>1</v>
-      </c>
-      <c r="F337" s="53">
-        <v>1</v>
-      </c>
-      <c r="G337" s="53">
-        <v>1</v>
-      </c>
-      <c r="I337" s="52" t="s">
+      <c r="E337" s="17">
+        <v>0</v>
+      </c>
+      <c r="F337" s="17">
+        <v>1</v>
+      </c>
+      <c r="G337" s="17">
+        <v>1</v>
+      </c>
+      <c r="I337" s="15" t="s">
         <v>1017</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A338" s="16">
+        <v>337</v>
+      </c>
+      <c r="B338" s="51" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C338" s="52" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D338" s="53"/>
+      <c r="E338" s="53">
+        <v>1</v>
+      </c>
+      <c r="F338" s="53">
+        <v>1</v>
+      </c>
+      <c r="G338" s="53">
+        <v>1</v>
+      </c>
+      <c r="H338" s="53"/>
+      <c r="I338" s="52" t="s">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_module_config_cjj.xlsx
+++ b/config_3.9/game_module_config_cjj.xlsx
@@ -4182,10 +4182,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>过大年--消消乐争霸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_045_XXLBDManger</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4441,6 +4437,10 @@
   </si>
   <si>
     <t>3月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5098,10 +5098,10 @@
   <dimension ref="A1:AJ341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C321" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B345" sqref="B345"/>
+      <selection pane="bottomRight" activeCell="G331" sqref="G331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -11585,13 +11585,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C256" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="D256" s="15" t="s">
         <v>1029</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>1030</v>
       </c>
       <c r="E256" s="17">
         <v>1</v>
@@ -12098,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="I275" s="52" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="53" customFormat="1" ht="16.5">
@@ -12121,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="52" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13381,30 +13381,30 @@
         <v>974</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
+    <row r="321" spans="1:9" s="53" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="18" t="s">
+      <c r="B321" s="51" t="s">
         <v>979</v>
       </c>
-      <c r="C321" s="15" t="s">
+      <c r="C321" s="52" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D321" s="51" t="s">
         <v>980</v>
       </c>
-      <c r="D321" s="18" t="s">
-        <v>981</v>
-      </c>
-      <c r="E321" s="17">
-        <v>0</v>
-      </c>
-      <c r="F321" s="17">
-        <v>1</v>
-      </c>
-      <c r="G321" s="17">
-        <v>1</v>
-      </c>
-      <c r="I321" s="15" t="s">
-        <v>952</v>
+      <c r="E321" s="53">
+        <v>1</v>
+      </c>
+      <c r="F321" s="53">
+        <v>1</v>
+      </c>
+      <c r="G321" s="53">
+        <v>1</v>
+      </c>
+      <c r="I321" s="52" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13415,7 +13415,7 @@
         <v>953</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D322" s="18" t="s">
         <v>954</v>
@@ -13430,7 +13430,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="15" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13441,7 +13441,7 @@
         <v>955</v>
       </c>
       <c r="C323" s="15" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E323" s="17">
         <v>0</v>
@@ -13461,19 +13461,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="50" t="s">
+        <v>984</v>
+      </c>
+      <c r="E324" s="17">
+        <v>1</v>
+      </c>
+      <c r="F324" s="17">
+        <v>1</v>
+      </c>
+      <c r="G324" s="17">
+        <v>1</v>
+      </c>
+      <c r="I324" s="19" t="s">
         <v>985</v>
-      </c>
-      <c r="E324" s="17">
-        <v>1</v>
-      </c>
-      <c r="F324" s="17">
-        <v>1</v>
-      </c>
-      <c r="G324" s="17">
-        <v>1</v>
-      </c>
-      <c r="I324" s="19" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13499,10 +13499,10 @@
         <v>1</v>
       </c>
       <c r="H325" s="17" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I325" s="15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13510,22 +13510,22 @@
         <v>325</v>
       </c>
       <c r="B326" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="C326" s="19" t="s">
         <v>988</v>
       </c>
-      <c r="C326" s="19" t="s">
+      <c r="E326" s="17">
+        <v>0</v>
+      </c>
+      <c r="F326" s="17">
+        <v>1</v>
+      </c>
+      <c r="G326" s="17">
+        <v>1</v>
+      </c>
+      <c r="I326" s="15" t="s">
         <v>989</v>
-      </c>
-      <c r="E326" s="17">
-        <v>0</v>
-      </c>
-      <c r="F326" s="17">
-        <v>1</v>
-      </c>
-      <c r="G326" s="17">
-        <v>1</v>
-      </c>
-      <c r="I326" s="15" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13536,19 +13536,19 @@
         <v>959</v>
       </c>
       <c r="C327" s="19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E327" s="17">
+        <v>0</v>
+      </c>
+      <c r="F327" s="17">
+        <v>1</v>
+      </c>
+      <c r="G327" s="17">
+        <v>1</v>
+      </c>
+      <c r="I327" s="15" t="s">
         <v>991</v>
-      </c>
-      <c r="E327" s="17">
-        <v>0</v>
-      </c>
-      <c r="F327" s="17">
-        <v>1</v>
-      </c>
-      <c r="G327" s="17">
-        <v>1</v>
-      </c>
-      <c r="I327" s="15" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13556,22 +13556,22 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="C328" s="19" t="s">
         <v>993</v>
       </c>
-      <c r="C328" s="19" t="s">
+      <c r="E328" s="17">
+        <v>0</v>
+      </c>
+      <c r="F328" s="17">
+        <v>1</v>
+      </c>
+      <c r="G328" s="17">
+        <v>1</v>
+      </c>
+      <c r="I328" s="15" t="s">
         <v>994</v>
-      </c>
-      <c r="E328" s="17">
-        <v>0</v>
-      </c>
-      <c r="F328" s="17">
-        <v>1</v>
-      </c>
-      <c r="G328" s="17">
-        <v>1</v>
-      </c>
-      <c r="I328" s="15" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13579,14 +13579,14 @@
         <v>328</v>
       </c>
       <c r="B329" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="C329" s="19" t="s">
         <v>996</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="D329" s="18" t="s">
         <v>997</v>
       </c>
-      <c r="D329" s="18" t="s">
-        <v>998</v>
-      </c>
       <c r="E329" s="17">
         <v>0</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="15" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13608,7 +13608,7 @@
         <v>976</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D330" s="18" t="s">
         <v>977</v>
@@ -13631,22 +13631,22 @@
         <v>330</v>
       </c>
       <c r="B331" s="18" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C331" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E331" s="17">
+        <v>0</v>
+      </c>
+      <c r="F331" s="17">
+        <v>1</v>
+      </c>
+      <c r="G331" s="17">
+        <v>1</v>
+      </c>
+      <c r="I331" s="15" t="s">
         <v>1005</v>
-      </c>
-      <c r="E331" s="17">
-        <v>0</v>
-      </c>
-      <c r="F331" s="17">
-        <v>1</v>
-      </c>
-      <c r="G331" s="17">
-        <v>1</v>
-      </c>
-      <c r="I331" s="15" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13654,10 +13654,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E332" s="17">
         <v>0</v>
@@ -13669,7 +13669,7 @@
         <v>1</v>
       </c>
       <c r="I332" s="15" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13677,10 +13677,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E333" s="17">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="I333" s="15" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13700,11 +13700,11 @@
         <v>333</v>
       </c>
       <c r="B334" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C334" s="15" t="s">
         <v>1003</v>
       </c>
-      <c r="C334" s="15" t="s">
-        <v>1004</v>
-      </c>
       <c r="E334" s="17">
         <v>0</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="15" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13723,11 +13723,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C335" s="15" t="s">
         <v>1009</v>
       </c>
-      <c r="C335" s="15" t="s">
-        <v>1010</v>
-      </c>
       <c r="E335" s="17">
         <v>0</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13746,11 +13746,11 @@
         <v>335</v>
       </c>
       <c r="B336" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C336" s="15" t="s">
         <v>1013</v>
       </c>
-      <c r="C336" s="15" t="s">
-        <v>1014</v>
-      </c>
       <c r="E336" s="17">
         <v>0</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>1</v>
       </c>
       <c r="I336" s="15" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="337" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13769,11 +13769,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C337" s="19" t="s">
         <v>1015</v>
       </c>
-      <c r="C337" s="19" t="s">
-        <v>1016</v>
-      </c>
       <c r="E337" s="17">
         <v>0</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="I337" s="15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="338" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13792,10 +13792,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="51" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C338" s="52" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D338" s="53"/>
       <c r="E338" s="53">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="H338" s="53"/>
       <c r="I338" s="52" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="16.5">
@@ -13817,13 +13817,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="55" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C339" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="C339" s="19" t="s">
+      <c r="D339" t="s">
         <v>1023</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1024</v>
       </c>
       <c r="E339" s="17">
         <v>1</v>
@@ -13843,13 +13843,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C340" t="s">
         <v>1025</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>1026</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1027</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -13869,22 +13869,22 @@
         <v>340</v>
       </c>
       <c r="B341" s="51" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C341" s="52" t="s">
         <v>1031</v>
       </c>
-      <c r="C341" s="52" t="s">
+      <c r="E341" s="53">
+        <v>1</v>
+      </c>
+      <c r="F341" s="53">
+        <v>1</v>
+      </c>
+      <c r="G341" s="53">
+        <v>1</v>
+      </c>
+      <c r="I341" s="52" t="s">
         <v>1032</v>
-      </c>
-      <c r="E341" s="53">
-        <v>1</v>
-      </c>
-      <c r="F341" s="53">
-        <v>1</v>
-      </c>
-      <c r="G341" s="53">
-        <v>1</v>
-      </c>
-      <c r="I341" s="52" t="s">
-        <v>1033</v>
       </c>
     </row>
   </sheetData>
